--- a/Archaeos Measurements.xlsx
+++ b/Archaeos Measurements.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FE657F-C242-3048-A41E-6F15AE2BEB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{018AC72B-463A-CC4D-9520-862B17D60F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2880" windowWidth="26840" windowHeight="15440" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="25040" windowHeight="17500" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>P48483</t>
   </si>
@@ -50,40 +51,208 @@
     <t>Erismacoscinus bilateralis</t>
   </si>
   <si>
-    <t>Excurrent Velocity (mm/s)</t>
-  </si>
-  <si>
-    <t>Osculum Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Large Excurent Canal Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Medium Excurrent Canal Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Small Excurrent Canal Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Apopyle Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Prosopyle Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Small Incurrent Canal Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Medium Incurrent Canal Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Large Incurent Canal Diameter (µm)</t>
-  </si>
-  <si>
-    <t>Ostia Diameter (µm)</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Species</t>
+  </si>
+  <si>
+    <t>Ostia_Diameter</t>
+  </si>
+  <si>
+    <t>Large_Incurrent_Canal_Diameter</t>
+  </si>
+  <si>
+    <t>Medium_Incurrent_Canal_Diameter</t>
+  </si>
+  <si>
+    <t>Small_Incurrent_Canal_Diameter</t>
+  </si>
+  <si>
+    <t>Prosopyle_Diameter</t>
+  </si>
+  <si>
+    <t>Apopyle_Diameter</t>
+  </si>
+  <si>
+    <t>Small_Excurrent_Canal_Diameter</t>
+  </si>
+  <si>
+    <t>Medium_Excurrent_Canal_Diameter</t>
+  </si>
+  <si>
+    <t>Large_Excurrent_Canal_Diameter</t>
+  </si>
+  <si>
+    <t>Osculum_Diameter</t>
+  </si>
+  <si>
+    <t>Excurrent_Velocity</t>
+  </si>
+  <si>
+    <t>Polycoscinus cymbricensis</t>
+  </si>
+  <si>
+    <t>P48484</t>
+  </si>
+  <si>
+    <t>P48485</t>
+  </si>
+  <si>
+    <t>P48486</t>
+  </si>
+  <si>
+    <t>P48487</t>
+  </si>
+  <si>
+    <t>P48488</t>
+  </si>
+  <si>
+    <t>P48489</t>
+  </si>
+  <si>
+    <t>P48490</t>
+  </si>
+  <si>
+    <t>P48491</t>
+  </si>
+  <si>
+    <t>P48492</t>
+  </si>
+  <si>
+    <t>P48493</t>
+  </si>
+  <si>
+    <t>P48510</t>
+  </si>
+  <si>
+    <t>Veronicacyathus tatei</t>
+  </si>
+  <si>
+    <t>P48511</t>
+  </si>
+  <si>
+    <t>P48512</t>
+  </si>
+  <si>
+    <t>P48513</t>
+  </si>
+  <si>
+    <t>P48514</t>
+  </si>
+  <si>
+    <t>Veronicacyathus cellularis</t>
+  </si>
+  <si>
+    <t>P48515</t>
+  </si>
+  <si>
+    <t>P48516</t>
+  </si>
+  <si>
+    <t>P48517</t>
+  </si>
+  <si>
+    <t>P48518</t>
+  </si>
+  <si>
+    <t>P48519</t>
+  </si>
+  <si>
+    <t>P48520</t>
+  </si>
+  <si>
+    <t>P48521</t>
+  </si>
+  <si>
+    <t>P48522</t>
+  </si>
+  <si>
+    <t>P48523</t>
+  </si>
+  <si>
+    <t>P48524</t>
+  </si>
+  <si>
+    <t>P48525</t>
+  </si>
+  <si>
+    <t>P48526</t>
+  </si>
+  <si>
+    <t>P48527</t>
+  </si>
+  <si>
+    <t>P48529</t>
+  </si>
+  <si>
+    <t>P48530</t>
+  </si>
+  <si>
+    <t>P48531</t>
+  </si>
+  <si>
+    <t>P48532</t>
+  </si>
+  <si>
+    <t>P48533</t>
+  </si>
+  <si>
+    <t>P48534</t>
+  </si>
+  <si>
+    <t>Veronicacyathus limbatus</t>
+  </si>
+  <si>
+    <t>veronicacyathid</t>
+  </si>
+  <si>
+    <t>P48535</t>
+  </si>
+  <si>
+    <t>Coscinoptycta convoluta</t>
+  </si>
+  <si>
+    <t>P48536</t>
+  </si>
+  <si>
+    <t>P48537</t>
+  </si>
+  <si>
+    <t>Porocoscinus rudens</t>
+  </si>
+  <si>
+    <t>P48538</t>
+  </si>
+  <si>
+    <t>P48539</t>
+  </si>
+  <si>
+    <t>Cup_Diameter</t>
+  </si>
+  <si>
+    <t>Outer_Wall_Thickness</t>
+  </si>
+  <si>
+    <t>Inner_Wall_Thickness</t>
+  </si>
+  <si>
+    <t>&gt;30</t>
+  </si>
+  <si>
+    <t>&gt;27</t>
+  </si>
+  <si>
+    <t>&gt;33</t>
+  </si>
+  <si>
+    <t>~18</t>
+  </si>
+  <si>
+    <t>0.2-0.3</t>
+  </si>
+  <si>
+    <t>Intervallum_Width</t>
   </si>
 </sst>
 </file>
@@ -454,131 +623,1364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89A4402-7992-334B-84F2-A449A3845ADB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2">
+        <v>70</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+      <c r="K2">
+        <f>0.1*1000</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="1">
+        <f>N2-(2*O2+2*Q2+2*P2)</f>
+        <v>4240</v>
+      </c>
+      <c r="N2">
+        <v>5900</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="J3">
-        <f>0.1*1000</f>
-        <v>100</v>
-      </c>
-      <c r="K3" s="1">
-        <f>(5.9-0.7)*1000</f>
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+      <c r="K3">
+        <f>0.2*1000</f>
+        <v>200</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L43" si="0">N3-(2*O3+2*Q3+2*P3)</f>
+        <v>11700</v>
+      </c>
+      <c r="N3">
+        <v>14200</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>180</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="J4">
-        <f>0.2*1000</f>
-        <v>200</v>
-      </c>
-      <c r="K4" s="1">
-        <f>(14.2-1.1)*1000</f>
-        <v>13100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+      <c r="K4">
+        <f>0.16*1000</f>
+        <v>160</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>5720</v>
+      </c>
+      <c r="N4">
+        <v>8000</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <v>70</v>
+      </c>
+      <c r="Q4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>140</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>0.21*1000</f>
+        <v>210</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="J5">
-        <f>0.16*1000</f>
+      <c r="G5" s="2"/>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="N5">
+        <v>15200</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>200</v>
+      </c>
+      <c r="Q5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="K6">
+        <v>240</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+      <c r="N6">
+        <v>12200</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>200</v>
+      </c>
+      <c r="Q6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
+      <c r="K7">
+        <v>220</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>6380</v>
+      </c>
+      <c r="N7">
+        <v>10600</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>110</v>
+      </c>
+      <c r="Q7">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="K8">
+        <v>180</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>5620</v>
+      </c>
+      <c r="N8">
+        <v>8500</v>
+      </c>
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8">
+        <v>90</v>
+      </c>
+      <c r="Q8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>230</v>
+      </c>
+      <c r="K9">
+        <v>190</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>4480</v>
+      </c>
+      <c r="N9">
+        <v>7700</v>
+      </c>
+      <c r="O9">
+        <v>210</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>210</v>
+      </c>
+      <c r="K10">
+        <v>210</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="N10">
+        <v>6700</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>210</v>
+      </c>
+      <c r="K11">
+        <v>210</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>3940</v>
+      </c>
+      <c r="N11">
+        <v>6400</v>
+      </c>
+      <c r="O11">
+        <v>110</v>
+      </c>
+      <c r="P11">
+        <v>120</v>
+      </c>
+      <c r="Q11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>230</v>
+      </c>
+      <c r="K12">
+        <v>190</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>2360</v>
+      </c>
+      <c r="N12">
+        <v>6000</v>
+      </c>
+      <c r="O12">
+        <v>120</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>120</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="N13">
+        <v>5500</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>90</v>
+      </c>
+      <c r="Q13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
         <v>160</v>
       </c>
-      <c r="K5" s="1">
-        <f>(8-1)*1000</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="K14">
+        <v>130</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="N14">
+        <v>3500</v>
+      </c>
+      <c r="O14">
+        <v>80</v>
+      </c>
+      <c r="P14">
+        <v>80</v>
+      </c>
+      <c r="Q14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>260</v>
+      </c>
+      <c r="K15">
+        <v>190</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="N15">
+        <v>19300</v>
+      </c>
+      <c r="O15">
+        <v>180</v>
+      </c>
+      <c r="P15">
+        <v>120</v>
+      </c>
+      <c r="Q15">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+      <c r="K16">
+        <v>170</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="N16">
+        <v>10000</v>
+      </c>
+      <c r="O16">
+        <v>150</v>
+      </c>
+      <c r="P16">
+        <v>200</v>
+      </c>
+      <c r="Q16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>230</v>
+      </c>
+      <c r="K17">
+        <v>220</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="N17">
+        <v>10000</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>200</v>
+      </c>
+      <c r="Q17">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>220</v>
+      </c>
+      <c r="K18">
+        <v>140</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="N18">
+        <v>8300</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>200</v>
+      </c>
+      <c r="Q18">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>210</v>
+      </c>
+      <c r="K19">
+        <v>210</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="N19">
+        <v>7200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
+      </c>
+      <c r="K20">
+        <v>120</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="N20">
+        <v>8400</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>190</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="N21">
+        <v>7300</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>150</v>
+      </c>
+      <c r="Q21">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>140</v>
+      </c>
+      <c r="K22">
+        <v>170</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="N22">
+        <v>7300</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>150</v>
+      </c>
+      <c r="Q22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>270</v>
+      </c>
+      <c r="K23">
+        <v>190</v>
+      </c>
+      <c r="L23" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23">
+        <v>160</v>
+      </c>
+      <c r="P23">
+        <v>150</v>
+      </c>
+      <c r="Q23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>130</v>
+      </c>
+      <c r="K24">
+        <v>170</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="K25">
+        <v>200</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="N25">
+        <v>21600</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>200</v>
+      </c>
+      <c r="Q25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>260</v>
+      </c>
+      <c r="K26">
+        <v>220</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>18040</v>
+      </c>
+      <c r="N26">
+        <v>21000</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>180</v>
+      </c>
+      <c r="Q26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>190</v>
+      </c>
+      <c r="K27">
+        <v>200</v>
+      </c>
+      <c r="L27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>200</v>
+      </c>
+      <c r="Q27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+      <c r="K28">
+        <v>190</v>
+      </c>
+      <c r="L28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28">
+        <v>13400</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>190</v>
+      </c>
+      <c r="K29">
+        <v>170</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>9360</v>
+      </c>
+      <c r="N29">
+        <v>12600</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>120</v>
+      </c>
+      <c r="Q29">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>190</v>
+      </c>
+      <c r="K30">
+        <v>220</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+      <c r="N30">
+        <v>9700</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>200</v>
+      </c>
+      <c r="Q30">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="K31">
+        <v>180</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>6680</v>
+      </c>
+      <c r="N31">
+        <v>9700</v>
+      </c>
+      <c r="O31">
+        <v>110</v>
+      </c>
+      <c r="P31">
+        <v>200</v>
+      </c>
+      <c r="Q31">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>150</v>
+      </c>
+      <c r="K32">
+        <v>220</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>3220</v>
+      </c>
+      <c r="N32">
+        <v>6300</v>
+      </c>
+      <c r="O32">
+        <v>140</v>
+      </c>
+      <c r="P32">
+        <v>200</v>
+      </c>
+      <c r="Q32">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>110</v>
+      </c>
+      <c r="K33">
+        <v>210</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>3280</v>
+      </c>
+      <c r="N33">
+        <v>6000</v>
+      </c>
+      <c r="O33">
+        <v>60</v>
+      </c>
+      <c r="P33">
+        <v>200</v>
+      </c>
+      <c r="Q33">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>170</v>
+      </c>
+      <c r="K34">
+        <v>110</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="N34">
+        <v>5900</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>190</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="N35">
+        <v>5500</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>130</v>
+      </c>
+      <c r="K36">
+        <v>110</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="N36">
+        <v>4100</v>
+      </c>
+      <c r="O36">
+        <v>80</v>
+      </c>
+      <c r="P36">
+        <v>50</v>
+      </c>
+      <c r="Q36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>130</v>
+      </c>
+      <c r="K37">
+        <v>200</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>7740</v>
+      </c>
+      <c r="N37">
+        <v>10900</v>
+      </c>
+      <c r="O37">
+        <v>80</v>
+      </c>
+      <c r="P37">
+        <v>200</v>
+      </c>
+      <c r="Q37">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>240</v>
+      </c>
+      <c r="K38">
+        <v>280</v>
+      </c>
+      <c r="L38" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N38" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38">
+        <v>150</v>
+      </c>
+      <c r="P38">
+        <v>300</v>
+      </c>
+      <c r="Q38">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>150</v>
+      </c>
+      <c r="K39">
+        <v>180</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="N39">
+        <v>7500</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>200</v>
+      </c>
+      <c r="Q39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>120</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>10640</v>
+      </c>
+      <c r="N40">
+        <v>12900</v>
+      </c>
+      <c r="O40">
+        <v>80</v>
+      </c>
+      <c r="P40">
+        <v>50</v>
+      </c>
+      <c r="Q40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>150</v>
+      </c>
+      <c r="K41">
+        <v>110</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="0"/>
+        <v>6860</v>
+      </c>
+      <c r="N41">
+        <v>9000</v>
+      </c>
+      <c r="O41">
+        <v>80</v>
+      </c>
+      <c r="P41">
+        <v>90</v>
+      </c>
+      <c r="Q41">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>-1920</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>180</v>
+      </c>
+      <c r="P42">
+        <v>180</v>
+      </c>
+      <c r="Q42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>130</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>-2080</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>120</v>
+      </c>
+      <c r="P43">
+        <v>120</v>
+      </c>
+      <c r="Q43">
+        <v>800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Archaeos Measurements.xlsx
+++ b/Archaeos Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2056D6-BA9B-944A-BD39-2AA94F35D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CEC3C-D92C-B246-8702-4E9B0963C2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="840" windowWidth="49820" windowHeight="25700" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="53560" windowHeight="32880" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="180">
   <si>
     <t>P48483</t>
   </si>
@@ -501,9 +501,6 @@
   </si>
   <si>
     <t>P48595</t>
-  </si>
-  <si>
-    <t>P48596</t>
   </si>
   <si>
     <t>P48597</t>
@@ -588,6 +585,9 @@
   </si>
   <si>
     <t>Large_Excurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Kruse, P. D., &amp; Moreno-Eiris, E. (2013). Archaeocyaths of the White Point Conglomerate, Kangaroo Island, South Australia. Alcheringa: An Australasian Journal of Palaeontology, 38(1), 1–64.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -698,20 +698,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -731,6 +722,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89A4402-7992-334B-84F2-A449A3845ADB}">
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,12 +1074,13 @@
     <col min="17" max="19" width="14.5" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" style="2"/>
     <col min="21" max="21" width="29.33203125" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.83203125" style="2"/>
+    <col min="22" max="22" width="11.1640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="67.33203125" style="2" customWidth="1"/>
     <col min="24" max="24" width="13.83203125" style="2" customWidth="1"/>
     <col min="25" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1087,30 +1091,30 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1126,25 +1130,25 @@
         <v>59</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>110</v>
       </c>
       <c r="I2" s="2">
-        <f>PI()*((G2/2)^2)</f>
+        <f t="shared" ref="I2:I33" si="0">PI()*((G2/2)^2)</f>
         <v>49087.385212340516</v>
       </c>
       <c r="J2" s="2">
@@ -1180,7 +1184,7 @@
         <v>378760.68836682494</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K11" si="0">M2-(2*N2+2*P2+2*O2)</f>
+        <f t="shared" ref="K2:K11" si="1">M2-(2*N2+2*P2+2*O2)</f>
         <v>3760</v>
       </c>
       <c r="M2" s="2">
@@ -1196,7 +1200,7 @@
         <v>2300</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" ref="Q2:Q11" si="1">(PI()*(M2/2))*((M2/2)+SQRT((T2^2+(M2/2)^2)))</f>
+        <f t="shared" ref="Q2:Q11" si="2">(PI()*(M2/2))*((M2/2)+SQRT((T2^2+(M2/2)^2)))</f>
         <v>532969622.26042199</v>
       </c>
       <c r="R2" s="2">
@@ -1204,17 +1208,17 @@
         <v>11103645.074847765</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" ref="S2:S11" si="2">R2/Q2</f>
+        <f t="shared" ref="S2:S11" si="3">R2/Q2</f>
         <v>2.0833542121509983E-2</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="10">
         <v>33378.150999999998</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>130</v>
       </c>
       <c r="I3" s="2">
-        <f>PI()*((G3/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>15393.804002589986</v>
       </c>
       <c r="J3" s="2">
@@ -1250,7 +1254,7 @@
         <v>211163.29221659788</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4460</v>
       </c>
       <c r="M3" s="2">
@@ -1266,25 +1270,23 @@
         <v>1800</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>512714681.67766899</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R2:R11" si="3">PI()*((K3/2)^2)</f>
+        <f t="shared" ref="R3:R11" si="4">PI()*((K3/2)^2)</f>
         <v>15622826.107036682</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0470799189749681E-2</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="10">
         <v>33378.150999999998</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1312,15 +1314,15 @@
         <v>130</v>
       </c>
       <c r="I4" s="2">
-        <f>PI()*((G4/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>53092.915845667507</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J67" si="4">I4*(1000000/((G4+H4)^2))</f>
+        <f t="shared" ref="J4:J67" si="5">I4*(1000000/((G4+H4)^2))</f>
         <v>349065.85039886594</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3540</v>
       </c>
       <c r="M4" s="2">
@@ -1336,25 +1338,23 @@
         <v>2100</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485969765.23280638</v>
       </c>
       <c r="R4" s="2">
+        <f t="shared" si="4"/>
+        <v>9842295.624431463</v>
+      </c>
+      <c r="S4" s="2">
         <f t="shared" si="3"/>
-        <v>9842295.624431463</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="2"/>
         <v>2.0252897049503601E-2</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="10">
         <v>33378.150999999998</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1382,15 +1382,15 @@
         <v>150</v>
       </c>
       <c r="I5" s="2">
-        <f>PI()*((G5/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>49087.385212340516</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306796.15757712821</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="M5" s="2">
@@ -1406,25 +1406,25 @@
         <v>1400</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>446408699.47972763</v>
       </c>
       <c r="R5" s="2">
+        <f t="shared" si="4"/>
+        <v>12566370.614359172</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v>12566370.614359172</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="2"/>
         <v>2.8149923218353048E-2</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="10">
         <v>33378.150999999998</v>
       </c>
-      <c r="V5" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1438,15 +1438,15 @@
         <v>100</v>
       </c>
       <c r="I6" s="2">
-        <f>PI()*((G6/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>53092.915845667507</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>409667.56053755787</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3880</v>
       </c>
       <c r="M6" s="2">
@@ -1462,25 +1462,23 @@
         <v>1100</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>375591564.50497127</v>
       </c>
       <c r="R6" s="2">
+        <f t="shared" si="4"/>
+        <v>11823698.111050546</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v>11823698.111050546</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="2"/>
         <v>3.1480201443379457E-2</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="10">
         <v>33378.150999999998</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1494,11 +1492,11 @@
         <v>200</v>
       </c>
       <c r="E7" s="2">
-        <f>PI()*((C7/2)^2)</f>
+        <f t="shared" ref="E7:E41" si="6">PI()*((C7/2)^2)</f>
         <v>17671.458676442588</v>
       </c>
       <c r="F7" s="2">
-        <f>E7*(1000000/((C7+D7)^2))</f>
+        <f t="shared" ref="F7:F41" si="7">E7*(1000000/((C7+D7)^2))</f>
         <v>144256.80552198031</v>
       </c>
       <c r="G7" s="2">
@@ -1508,15 +1506,15 @@
         <v>70</v>
       </c>
       <c r="I7" s="2">
-        <f>PI()*((G7/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>66051.9855417254</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>509660.38226639968</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4140</v>
       </c>
       <c r="M7" s="2">
@@ -1532,25 +1530,23 @@
         <v>1300</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147828189.22405592</v>
       </c>
       <c r="R7" s="2">
+        <f t="shared" si="4"/>
+        <v>13461410.361366905</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="3"/>
-        <v>13461410.361366905</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="2"/>
         <v>9.1061186854992232E-2</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="12">
         <v>8760</v>
       </c>
-      <c r="V7" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -1564,11 +1560,11 @@
         <v>390</v>
       </c>
       <c r="E8" s="2">
-        <f>PI()*((C8/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>9503.317777109125</v>
       </c>
       <c r="F8" s="2">
-        <f>E8*(1000000/((C8+D8)^2))</f>
+        <f t="shared" si="7"/>
         <v>38013.2711084365</v>
       </c>
       <c r="G8" s="2">
@@ -1578,15 +1574,15 @@
         <v>80</v>
       </c>
       <c r="I8" s="2">
-        <f>PI()*((G8/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400713.34867216751</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="M8" s="2">
@@ -1602,22 +1598,25 @@
         <v>600</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32566813.977686763</v>
       </c>
       <c r="R8" s="2">
+        <f t="shared" si="4"/>
+        <v>282743.3388230814</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v>282743.3388230814</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="2"/>
         <v>8.681946567349318E-3</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="12">
         <v>8760</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1631,11 +1630,11 @@
         <v>270</v>
       </c>
       <c r="E9" s="2">
-        <f>PI()*((C9/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F9" s="2">
-        <f>E9*(1000000/((C9+D9)^2))</f>
+        <f t="shared" si="7"/>
         <v>57370.20915978439</v>
       </c>
       <c r="G9" s="2">
@@ -1645,15 +1644,15 @@
         <v>80</v>
       </c>
       <c r="I9" s="2">
-        <f>PI()*((G9/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>17671.458676442588</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>334054.03925222281</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1220</v>
       </c>
       <c r="M9" s="2">
@@ -1669,22 +1668,23 @@
         <v>500</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39657637.145096421</v>
       </c>
       <c r="R9" s="2">
+        <f t="shared" si="4"/>
+        <v>1168986.626400762</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="3"/>
-        <v>1168986.626400762</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="2"/>
         <v>2.9476961073695854E-2</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="12">
         <v>8760</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
@@ -1698,11 +1698,11 @@
         <v>250</v>
       </c>
       <c r="E10" s="2">
-        <f>PI()*((C10/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F10" s="2">
-        <f>E10*(1000000/((C10+D10)^2))</f>
+        <f t="shared" si="7"/>
         <v>110446.61672776617</v>
       </c>
       <c r="G10" s="2">
@@ -1712,15 +1712,15 @@
         <v>70</v>
       </c>
       <c r="I10" s="2">
-        <f>PI()*((G10/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>470748.53498119686</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2460</v>
       </c>
       <c r="M10" s="2">
@@ -1736,22 +1736,23 @@
         <v>1200</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100656546.36836582</v>
       </c>
       <c r="R10" s="2">
+        <f t="shared" si="4"/>
+        <v>4752915.5256159976</v>
+      </c>
+      <c r="S10" s="2">
         <f t="shared" si="3"/>
-        <v>4752915.5256159976</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="2"/>
         <v>4.721913970922547E-2</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="12">
         <v>8760</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1765,11 +1766,11 @@
         <v>380</v>
       </c>
       <c r="E11" s="2">
-        <f>PI()*((C11/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F11" s="2">
-        <f>E11*(1000000/((C11+D11)^2))</f>
+        <f t="shared" si="7"/>
         <v>56929.748530288409</v>
       </c>
       <c r="G11" s="2">
@@ -1779,15 +1780,15 @@
         <v>90</v>
       </c>
       <c r="I11" s="2">
-        <f>PI()*((G11/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>471729.77189059241</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3360</v>
       </c>
       <c r="M11" s="2">
@@ -1803,22 +1804,25 @@
         <v>1400</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128581365.51218042</v>
       </c>
       <c r="R11" s="2">
+        <f t="shared" si="4"/>
+        <v>8866831.1054918319</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="3"/>
-        <v>8866831.1054918319</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="2"/>
         <v>6.8958912282292437E-2</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="12">
         <v>8760</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
@@ -1832,11 +1836,11 @@
         <v>360</v>
       </c>
       <c r="E12" s="2">
-        <f>PI()*((C12/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F12" s="2">
-        <f>E12*(1000000/((C12+D12)^2))</f>
+        <f t="shared" si="7"/>
         <v>37117.115472469202</v>
       </c>
       <c r="G12" s="2">
@@ -1846,11 +1850,11 @@
         <v>90</v>
       </c>
       <c r="I12" s="2">
-        <f>PI()*((G12/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>113411.49479459153</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>513406.49522223423</v>
       </c>
       <c r="N12" s="2">
@@ -1862,11 +1866,12 @@
       <c r="P12" s="2">
         <v>1300</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="12">
         <v>8760</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
@@ -1880,11 +1885,11 @@
         <v>90</v>
       </c>
       <c r="E13" s="2">
-        <f>PI()*((C13/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>20106.192982974677</v>
       </c>
       <c r="F13" s="2">
-        <f>E13*(1000000/((C13+D13)^2))</f>
+        <f t="shared" si="7"/>
         <v>321699.08772759483</v>
       </c>
       <c r="G13" s="2">
@@ -1894,15 +1899,15 @@
         <v>110</v>
       </c>
       <c r="I13" s="2">
-        <f>PI()*((G13/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>20106.192982974677</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>275805.11636453599</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13:K35" si="5">M13-(2*N13+2*P13+2*O13)</f>
+        <f t="shared" ref="K13:K35" si="8">M13-(2*N13+2*P13+2*O13)</f>
         <v>8840</v>
       </c>
       <c r="M13" s="2">
@@ -1918,22 +1923,23 @@
         <v>1200</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" ref="Q13:Q35" si="6">(PI()*(M13/2))*((M13/2)+SQRT((T13^2+(M13/2)^2)))</f>
+        <f t="shared" ref="Q13:Q35" si="9">(PI()*(M13/2))*((M13/2)+SQRT((T13^2+(M13/2)^2)))</f>
         <v>516171570.87546408</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ref="R13:R35" si="7">PI()*((K13/2)^2)</f>
+        <f t="shared" ref="R13:R35" si="10">PI()*((K13/2)^2)</f>
         <v>61375410.717591636</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" ref="S13:S35" si="8">R13/Q13</f>
+        <f t="shared" ref="S13:S35" si="11">R13/Q13</f>
         <v>0.1189050582803205</v>
       </c>
       <c r="T13" s="5">
         <v>21140</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -1947,11 +1953,11 @@
         <v>80</v>
       </c>
       <c r="E14" s="2">
-        <f>PI()*((C14/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F14" s="2">
-        <f>E14*(1000000/((C14+D14)^2))</f>
+        <f t="shared" si="7"/>
         <v>282743.3388230814</v>
       </c>
       <c r="G14" s="2">
@@ -1961,15 +1967,15 @@
         <v>130</v>
       </c>
       <c r="I14" s="2">
-        <f>PI()*((G14/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>276883.53221335821</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1860</v>
       </c>
       <c r="M14" s="2">
@@ -1985,22 +1991,25 @@
         <v>800</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>138034989.21337736</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2717163.4860898121</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9684599546637878E-2</v>
       </c>
       <c r="T14" s="5">
         <v>21140</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -2014,11 +2023,11 @@
         <v>50</v>
       </c>
       <c r="E15" s="2">
-        <f>PI()*((C15/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F15" s="2">
-        <f>E15*(1000000/((C15+D15)^2))</f>
+        <f t="shared" si="7"/>
         <v>426421.1635066478</v>
       </c>
       <c r="G15" s="2">
@@ -2028,15 +2037,15 @@
         <v>100</v>
       </c>
       <c r="I15" s="2">
-        <f>PI()*((G15/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>391340.26134682546</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4720</v>
       </c>
       <c r="M15" s="2">
@@ -2052,22 +2061,25 @@
         <v>1000</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>137203131.67071825</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17497414.443433713</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.1275292643131993</v>
       </c>
       <c r="T15" s="5">
         <v>8000</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -2081,11 +2093,11 @@
         <v>50</v>
       </c>
       <c r="E16" s="2">
-        <f>PI()*((C16/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="F16" s="2">
-        <f>E16*(1000000/((C16+D16)^2))</f>
+        <f t="shared" si="7"/>
         <v>324577.81242445565</v>
       </c>
       <c r="G16" s="2">
@@ -2095,15 +2107,15 @@
         <v>70</v>
       </c>
       <c r="I16" s="2">
-        <f>PI()*((G16/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>13273.228961416877</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>331830.72403542191</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1580</v>
       </c>
       <c r="M16" s="2">
@@ -2119,19 +2131,22 @@
         <v>500</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>43641432.382015057</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1960667.97510539</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.4926755793501291E-2</v>
       </c>
       <c r="T16" s="5">
         <v>8000</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2148,11 +2163,11 @@
         <v>20</v>
       </c>
       <c r="E17" s="2">
-        <f>PI()*((C17/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F17" s="2">
-        <f>E17*(1000000/((C17+D17)^2))</f>
+        <f t="shared" si="7"/>
         <v>545415.39124822803</v>
       </c>
       <c r="G17" s="2">
@@ -2162,15 +2177,15 @@
         <v>40</v>
       </c>
       <c r="I17" s="2">
-        <f>PI()*((G17/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>514694.03451669507</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6020</v>
       </c>
       <c r="M17" s="2">
@@ -2186,15 +2201,15 @@
         <v>1000</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>736023653.35165143</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>28463143.600788884</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8671506644080623E-2</v>
       </c>
       <c r="T17" s="6">
@@ -2215,11 +2230,11 @@
         <v>50</v>
       </c>
       <c r="E18" s="2">
-        <f>PI()*((C18/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F18" s="2">
-        <f>E18*(1000000/((C18+D18)^2))</f>
+        <f t="shared" si="7"/>
         <v>391340.26134682546</v>
       </c>
       <c r="G18" s="2">
@@ -2229,15 +2244,15 @@
         <v>80</v>
       </c>
       <c r="I18" s="2">
-        <f>PI()*((G18/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>17671.458676442588</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>334054.03925222281</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5280</v>
       </c>
       <c r="M18" s="2">
@@ -2253,15 +2268,15 @@
         <v>1800</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>848807060.22147048</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>21895644.158459421</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5795784677788161E-2</v>
       </c>
       <c r="T18" s="6">
@@ -2282,11 +2297,11 @@
         <v>30</v>
       </c>
       <c r="E19" s="2">
-        <f>PI()*((C19/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="F19" s="2">
-        <f>E19*(1000000/((C19+D19)^2))</f>
+        <f t="shared" si="7"/>
         <v>441786.46691106464</v>
       </c>
       <c r="G19" s="2">
@@ -2296,15 +2311,15 @@
         <v>60</v>
       </c>
       <c r="I19" s="2">
-        <f>PI()*((G19/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>17671.458676442588</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400713.34867216751</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5880</v>
       </c>
       <c r="M19" s="2">
@@ -2320,15 +2335,15 @@
         <v>1200</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>754642590.81755447</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27154670.260568734</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.5983484885408173E-2</v>
       </c>
       <c r="T19" s="6">
@@ -2349,11 +2364,11 @@
         <v>30</v>
       </c>
       <c r="E20" s="2">
-        <f>PI()*((C20/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>9503.317777109125</v>
       </c>
       <c r="F20" s="2">
-        <f>E20*(1000000/((C20+D20)^2))</f>
+        <f t="shared" si="7"/>
         <v>484863.15189332271</v>
       </c>
       <c r="G20" s="2">
@@ -2363,15 +2378,15 @@
         <v>50</v>
       </c>
       <c r="I20" s="2">
-        <f>PI()*((G20/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>17671.458676442588</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>441786.46691106469</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
       <c r="M20" s="2">
@@ -2387,18 +2402,18 @@
         <v>1800</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1259327277.2592664</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>113097335.52923255</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.9807739077463353E-2</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="12">
         <v>39850</v>
       </c>
     </row>
@@ -2416,11 +2431,11 @@
         <v>20</v>
       </c>
       <c r="E21" s="2">
-        <f>PI()*((C21/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F21" s="2">
-        <f>E21*(1000000/((C21+D21)^2))</f>
+        <f t="shared" si="7"/>
         <v>611469.15835441486</v>
       </c>
       <c r="G21" s="2">
@@ -2430,15 +2445,15 @@
         <v>160</v>
       </c>
       <c r="I21" s="2">
-        <f>PI()*((G21/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>53092.915845667507</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300980.24855820579</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7840</v>
       </c>
       <c r="M21" s="2">
@@ -2454,18 +2469,18 @@
         <v>1500</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>839450053.71241379</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>48274969.352122195</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.7507851883062316E-2</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="12">
         <v>39850</v>
       </c>
     </row>
@@ -2483,11 +2498,11 @@
         <v>30</v>
       </c>
       <c r="E22" s="2">
-        <f>PI()*((C22/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F22" s="2">
-        <f>E22*(1000000/((C22+D22)^2))</f>
+        <f t="shared" si="7"/>
         <v>464732.64106357889</v>
       </c>
       <c r="G22" s="2">
@@ -2497,15 +2512,15 @@
         <v>50</v>
       </c>
       <c r="I22" s="2">
-        <f>PI()*((G22/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>15393.804002589986</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>426421.1635066478</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1840</v>
       </c>
       <c r="M22" s="2">
@@ -2521,18 +2536,18 @@
         <v>1100</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>319101912.47498274</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2659044.0219984008</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.3328990458710183E-3</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="12">
         <v>39850</v>
       </c>
     </row>
@@ -2550,11 +2565,11 @@
         <v>20</v>
       </c>
       <c r="E23" s="2">
-        <f>PI()*((C23/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F23" s="2">
-        <f>E23*(1000000/((C23+D23)^2))</f>
+        <f t="shared" si="7"/>
         <v>545415.39124822803</v>
       </c>
       <c r="G23" s="2">
@@ -2564,15 +2579,15 @@
         <v>60</v>
       </c>
       <c r="I23" s="2">
-        <f>PI()*((G23/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>15393.804002589986</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>384845.10006474965</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2100</v>
       </c>
       <c r="M23" s="2">
@@ -2588,18 +2603,18 @@
         <v>700</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>118071977.97412328</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3463605.9005827471</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9334698715234808E-2</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="12">
         <v>16153.846</v>
       </c>
     </row>
@@ -2617,11 +2632,11 @@
         <v>50</v>
       </c>
       <c r="E24" s="2">
-        <f>PI()*((C24/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="F24" s="2">
-        <f>E24*(1000000/((C24+D24)^2))</f>
+        <f t="shared" si="7"/>
         <v>324577.81242445565</v>
       </c>
       <c r="G24" s="2">
@@ -2631,15 +2646,15 @@
         <v>50</v>
       </c>
       <c r="I24" s="2">
-        <f>PI()*((G24/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>13273.228961416877</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>409667.56053755787</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5220</v>
       </c>
       <c r="M24" s="2">
@@ -2655,18 +2670,18 @@
         <v>1400</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>292251055.01958776</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>21400843.315519031</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.3227599859595607E-2</v>
       </c>
-      <c r="T24" s="15">
+      <c r="T24" s="12">
         <v>16153.846</v>
       </c>
     </row>
@@ -2684,11 +2699,11 @@
         <v>30</v>
       </c>
       <c r="E25" s="2">
-        <f>PI()*((C25/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>13273.228961416877</v>
       </c>
       <c r="F25" s="2">
-        <f>E25*(1000000/((C25+D25)^2))</f>
+        <f t="shared" si="7"/>
         <v>518485.50630534673</v>
       </c>
       <c r="G25" s="2">
@@ -2698,15 +2713,15 @@
         <v>60</v>
       </c>
       <c r="I25" s="2">
-        <f>PI()*((G25/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>11309.733552923255</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349065.85039886588</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2380</v>
       </c>
       <c r="M25" s="2">
@@ -2722,15 +2737,15 @@
         <v>1700</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>394207801.19134128</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4448809.3567485064</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1285442204095639E-2</v>
       </c>
       <c r="T25" s="5">
@@ -2742,7 +2757,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
         <v>140</v>
@@ -2751,11 +2766,11 @@
         <v>80</v>
       </c>
       <c r="E26" s="2">
-        <f>PI()*((C26/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F26" s="2">
-        <f>E26*(1000000/((C26+D26)^2))</f>
+        <f t="shared" si="7"/>
         <v>318053.80170640472</v>
       </c>
       <c r="G26" s="2">
@@ -2765,15 +2780,15 @@
         <v>100</v>
       </c>
       <c r="I26" s="2">
-        <f>PI()*((G26/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>80424.771931898707</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>455922.74337811058</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5700</v>
       </c>
       <c r="M26" s="2">
@@ -2789,15 +2804,15 @@
         <v>1200</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>492477012.53785414</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25517586.328783095</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.1814776485271365E-2</v>
       </c>
       <c r="T26" s="5">
@@ -2809,7 +2824,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2">
         <v>140</v>
@@ -2818,11 +2833,11 @@
         <v>80</v>
       </c>
       <c r="E27" s="2">
-        <f>PI()*((C27/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F27" s="2">
-        <f>E27*(1000000/((C27+D27)^2))</f>
+        <f t="shared" si="7"/>
         <v>318053.80170640472</v>
       </c>
       <c r="G27" s="2">
@@ -2832,15 +2847,15 @@
         <v>100</v>
       </c>
       <c r="I27" s="2">
-        <f>PI()*((G27/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>80424.771931898707</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>455922.74337811058</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5600</v>
       </c>
       <c r="M27" s="2">
@@ -2856,15 +2871,15 @@
         <v>1200</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>492477012.53785414</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24630086.404143978</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.0012662067654971E-2</v>
       </c>
       <c r="T27" s="5">
@@ -2876,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2">
         <v>130</v>
@@ -2885,11 +2900,11 @@
         <v>90</v>
       </c>
       <c r="E28" s="2">
-        <f>PI()*((C28/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>13273.228961416877</v>
       </c>
       <c r="F28" s="2">
-        <f>E28*(1000000/((C28+D28)^2))</f>
+        <f t="shared" si="7"/>
         <v>274240.2677978694</v>
       </c>
       <c r="G28" s="2">
@@ -2899,15 +2914,15 @@
         <v>100</v>
       </c>
       <c r="I28" s="2">
-        <f>PI()*((G28/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>80424.771931898707</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>455922.74337811058</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3680</v>
       </c>
       <c r="M28" s="2">
@@ -2923,15 +2938,15 @@
         <v>1300</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>370589080.936248</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10636176.087993603</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.870072712645123E-2</v>
       </c>
       <c r="T28" s="5">
@@ -2943,7 +2958,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2">
         <v>140</v>
@@ -2952,11 +2967,11 @@
         <v>60</v>
       </c>
       <c r="E29" s="2">
-        <f>PI()*((C29/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F29" s="2">
-        <f>E29*(1000000/((C29+D29)^2))</f>
+        <f t="shared" si="7"/>
         <v>384845.10006474965</v>
       </c>
       <c r="G29" s="2">
@@ -2966,15 +2981,15 @@
         <v>100</v>
       </c>
       <c r="I29" s="2">
-        <f>PI()*((G29/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>90792.027688745016</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>468967.08516913751</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3340</v>
       </c>
       <c r="M29" s="2">
@@ -2990,15 +3005,15 @@
         <v>1200</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>341280529.60173857</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8761587.7515965737</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5672685640229797E-2</v>
       </c>
       <c r="T29" s="5">
@@ -3010,7 +3025,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2">
         <v>140</v>
@@ -3019,11 +3034,11 @@
         <v>60</v>
       </c>
       <c r="E30" s="2">
-        <f>PI()*((C30/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F30" s="2">
-        <f>E30*(1000000/((C30+D30)^2))</f>
+        <f t="shared" si="7"/>
         <v>384845.10006474965</v>
       </c>
       <c r="G30" s="2">
@@ -3033,15 +3048,15 @@
         <v>100</v>
       </c>
       <c r="I30" s="2">
-        <f>PI()*((G30/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>90792.027688745016</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>468967.08516913751</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3140</v>
       </c>
       <c r="M30" s="2">
@@ -3057,15 +3072,15 @@
         <v>1200</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>341280529.60173857</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7743711.7318334812</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2690165597404863E-2</v>
       </c>
       <c r="T30" s="5">
@@ -3077,7 +3092,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="2">
         <v>100</v>
@@ -3086,11 +3101,11 @@
         <v>50</v>
       </c>
       <c r="E31" s="2">
-        <f>PI()*((C31/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F31" s="2">
-        <f>E31*(1000000/((C31+D31)^2))</f>
+        <f t="shared" si="7"/>
         <v>349065.85039886588</v>
       </c>
       <c r="G31" s="2">
@@ -3100,15 +3115,15 @@
         <v>100</v>
       </c>
       <c r="I31" s="2">
-        <f>PI()*((G31/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>391340.26134682546</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="M31" s="2">
@@ -3124,15 +3139,15 @@
         <v>1000</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>289670781.03491586</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6514406.5264837947</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2489001145402275E-2</v>
       </c>
       <c r="T31" s="5">
@@ -3153,11 +3168,11 @@
         <v>60</v>
       </c>
       <c r="E32" s="2">
-        <f>PI()*((C32/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F32" s="2">
-        <f>E32*(1000000/((C32+D32)^2))</f>
+        <f t="shared" si="7"/>
         <v>349065.85039886588</v>
       </c>
       <c r="G32" s="2">
@@ -3167,15 +3182,15 @@
         <v>100</v>
       </c>
       <c r="I32" s="2">
-        <f>PI()*((G32/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>41547.562843725012</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>381520.31996074389</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5820</v>
       </c>
       <c r="M32" s="2">
@@ -3191,18 +3206,18 @@
         <v>1600</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>550205838.88189542</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26603320.749863729</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.8351578390963372E-2</v>
       </c>
-      <c r="T32" s="15">
+      <c r="T32" s="12">
         <v>31320.988000000001</v>
       </c>
     </row>
@@ -3220,11 +3235,11 @@
         <v>60</v>
       </c>
       <c r="E33" s="2">
-        <f>PI()*((C33/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F33" s="2">
-        <f>E33*(1000000/((C33+D33)^2))</f>
+        <f t="shared" si="7"/>
         <v>349065.85039886588</v>
       </c>
       <c r="G33" s="2">
@@ -3234,15 +3249,15 @@
         <v>100</v>
       </c>
       <c r="I33" s="2">
-        <f>PI()*((G33/2)^2)</f>
+        <f t="shared" si="0"/>
         <v>41547.562843725012</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>381520.31996074389</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5620</v>
       </c>
       <c r="M33" s="2">
@@ -3258,18 +3273,18 @@
         <v>1600</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>550205838.88189542</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24806329.752010364</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.5085544352674839E-2</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="12">
         <v>31320.988000000001</v>
       </c>
     </row>
@@ -3287,11 +3302,11 @@
         <v>70</v>
       </c>
       <c r="E34" s="2">
-        <f>PI()*((C34/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>25446.900494077323</v>
       </c>
       <c r="F34" s="2">
-        <f>E34*(1000000/((C34+D34)^2))</f>
+        <f t="shared" si="7"/>
         <v>407150.40790523717</v>
       </c>
       <c r="G34" s="2">
@@ -3301,15 +3316,15 @@
         <v>70</v>
       </c>
       <c r="I34" s="2">
-        <f>PI()*((G34/2)^2)</f>
+        <f t="shared" ref="I34:I65" si="12">PI()*((G34/2)^2)</f>
         <v>57255.526111673978</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>495290.01826707594</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7160</v>
       </c>
       <c r="M34" s="2">
@@ -3325,15 +3340,15 @@
         <v>1000</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>725948799.81986487</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40263908.085468225</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.5463840005602616E-2</v>
       </c>
       <c r="T34" s="5">
@@ -3354,11 +3369,11 @@
         <v>50</v>
       </c>
       <c r="E35" s="2">
-        <f>PI()*((C35/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="F35" s="2">
-        <f>E35*(1000000/((C35+D35)^2))</f>
+        <f t="shared" si="7"/>
         <v>324577.81242445565</v>
       </c>
       <c r="G35" s="2">
@@ -3368,15 +3383,15 @@
         <v>90</v>
       </c>
       <c r="I35" s="2">
-        <f>PI()*((G35/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>471729.77189059241</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25800</v>
       </c>
       <c r="M35" s="2">
@@ -3392,15 +3407,15 @@
         <v>1700</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2588276327.8505678</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>522792433.48387748</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.20198478340913084</v>
       </c>
       <c r="T35" s="5">
@@ -3421,11 +3436,11 @@
         <v>60</v>
       </c>
       <c r="E36" s="2">
-        <f>PI()*((C36/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>22698.006922186254</v>
       </c>
       <c r="F36" s="2">
-        <f>E36*(1000000/((C36+D36)^2))</f>
+        <f t="shared" si="7"/>
         <v>429073.85486174392</v>
       </c>
       <c r="G36" s="2">
@@ -3435,11 +3450,11 @@
         <v>100</v>
       </c>
       <c r="I36" s="2">
-        <f>PI()*((G36/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448999.18799818429</v>
       </c>
       <c r="N36" s="2">
@@ -3469,11 +3484,11 @@
         <v>90</v>
       </c>
       <c r="E37" s="2">
-        <f>PI()*((C37/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>13273.228961416877</v>
       </c>
       <c r="F37" s="2">
-        <f>E37*(1000000/((C37+D37)^2))</f>
+        <f t="shared" si="7"/>
         <v>274240.2677978694</v>
       </c>
       <c r="G37" s="2">
@@ -3483,15 +3498,15 @@
         <v>80</v>
       </c>
       <c r="I37" s="2">
-        <f>PI()*((G37/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>441786.46691106464</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" ref="K37:K83" si="9">M37-(2*N37+2*P37+2*O37)</f>
+        <f t="shared" ref="K37:K83" si="13">M37-(2*N37+2*P37+2*O37)</f>
         <v>12600</v>
       </c>
       <c r="M37" s="2">
@@ -3507,18 +3522,18 @@
         <v>1300</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" ref="Q37:Q83" si="10">(PI()*(M37/2))*((M37/2)+SQRT((T37^2+(M37/2)^2)))</f>
+        <f t="shared" ref="Q37:Q83" si="14">(PI()*(M37/2))*((M37/2)+SQRT((T37^2+(M37/2)^2)))</f>
         <v>704653382.32086957</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:R83" si="11">PI()*((K37/2)^2)</f>
+        <f t="shared" ref="R37:R83" si="15">PI()*((K37/2)^2)</f>
         <v>124689812.42097889</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" ref="S37:S83" si="12">R37/Q37</f>
+        <f t="shared" ref="S37:S83" si="16">R37/Q37</f>
         <v>0.17695198171091781</v>
       </c>
-      <c r="T37" s="15">
+      <c r="T37" s="12">
         <v>13134.328</v>
       </c>
     </row>
@@ -3536,11 +3551,11 @@
         <v>90</v>
       </c>
       <c r="E38" s="2">
-        <f>PI()*((C38/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>13273.228961416877</v>
       </c>
       <c r="F38" s="2">
-        <f>E38*(1000000/((C38+D38)^2))</f>
+        <f t="shared" si="7"/>
         <v>274240.2677978694</v>
       </c>
       <c r="G38" s="2">
@@ -3550,15 +3565,15 @@
         <v>100</v>
       </c>
       <c r="I38" s="2">
-        <f>PI()*((G38/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>66051.9855417254</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>434266.83459385537</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6500</v>
       </c>
       <c r="M38" s="2">
@@ -3574,18 +3589,18 @@
         <v>1100</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>287230250.36816686</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>33183072.403542191</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.115527777318053</v>
       </c>
-      <c r="T38" s="15">
+      <c r="T38" s="12">
         <v>13134.328</v>
       </c>
     </row>
@@ -3603,11 +3618,11 @@
         <v>80</v>
       </c>
       <c r="E39" s="2">
-        <f>PI()*((C39/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F39" s="2">
-        <f>E39*(1000000/((C39+D39)^2))</f>
+        <f t="shared" si="7"/>
         <v>334054.03925222281</v>
       </c>
       <c r="G39" s="2">
@@ -3617,15 +3632,15 @@
         <v>80</v>
       </c>
       <c r="I39" s="2">
-        <f>PI()*((G39/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>41547.562843725012</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>432336.76216155058</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2340</v>
       </c>
       <c r="M39" s="2">
@@ -3641,18 +3656,18 @@
         <v>1100</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>158424591.54142013</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4300526.183499068</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.714557217194841E-2</v>
       </c>
-      <c r="T39" s="15">
+      <c r="T39" s="12">
         <v>13134.328</v>
       </c>
     </row>
@@ -3670,11 +3685,11 @@
         <v>40</v>
       </c>
       <c r="E40" s="2">
-        <f>PI()*((C40/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F40" s="2">
-        <f>E40*(1000000/((C40+D40)^2))</f>
+        <f t="shared" si="7"/>
         <v>489514.09076018247</v>
       </c>
       <c r="G40" s="2">
@@ -3684,15 +3699,15 @@
         <v>80</v>
       </c>
       <c r="I40" s="2">
-        <f>PI()*((G40/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>57255.526111673978</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>467392.04989121616</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2160</v>
       </c>
       <c r="M40" s="2">
@@ -3708,18 +3723,18 @@
         <v>1200</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>139691262.1626012</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3664353.6711471346</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.6231803009137477E-2</v>
       </c>
-      <c r="T40" s="15">
+      <c r="T40" s="12">
         <v>13134.328</v>
       </c>
     </row>
@@ -3737,11 +3752,11 @@
         <v>150</v>
       </c>
       <c r="E41" s="2">
-        <f>PI()*((C41/2)^2)</f>
+        <f t="shared" si="6"/>
         <v>152053.084433746</v>
       </c>
       <c r="F41" s="2">
-        <f>E41*(1000000/((C41+D41)^2))</f>
+        <f t="shared" si="7"/>
         <v>436808.63095014647</v>
       </c>
       <c r="G41" s="2">
@@ -3751,15 +3766,15 @@
         <v>100</v>
       </c>
       <c r="I41" s="2">
-        <f>PI()*((G41/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>237582.9444277281</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>562326.49568693049</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12000</v>
       </c>
       <c r="M41" s="2">
@@ -3775,18 +3790,18 @@
         <v>3400</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1399233676.1923616</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>113097335.52923255</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.0828054279680109E-2</v>
       </c>
-      <c r="T41" s="15">
+      <c r="T41" s="12">
         <v>29575.758000000002</v>
       </c>
     </row>
@@ -3804,15 +3819,15 @@
         <v>80</v>
       </c>
       <c r="I42" s="2">
-        <f>PI()*((G42/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>496231.18673566589</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1200</v>
       </c>
       <c r="M42" s="2">
@@ -3828,18 +3843,18 @@
         <v>1900</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>297166472.13846803</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1130973.3552923256</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.8058578653023009E-3</v>
       </c>
-      <c r="T42" s="15">
+      <c r="T42" s="12">
         <v>29575.758000000002</v>
       </c>
     </row>
@@ -3857,11 +3872,11 @@
         <v>30</v>
       </c>
       <c r="E43" s="2">
-        <f>PI()*((C43/2)^2)</f>
+        <f t="shared" ref="E43:E61" si="17">PI()*((C43/2)^2)</f>
         <v>3848.4510006474966</v>
       </c>
       <c r="F43" s="2">
-        <f>E43*(1000000/((C43+D43)^2))</f>
+        <f t="shared" ref="F43:F61" si="18">E43*(1000000/((C43+D43)^2))</f>
         <v>384845.10006474965</v>
       </c>
       <c r="G43" s="2">
@@ -3872,15 +3887,15 @@
         <v>80</v>
       </c>
       <c r="I43" s="2">
-        <f>PI()*((G43/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>7853.981633974483</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242406.84055476799</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4240</v>
       </c>
       <c r="M43" s="2">
@@ -3896,18 +3911,18 @@
         <v>700</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>234651496.57220528</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14119574.022293966</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.017252917008007E-2</v>
       </c>
-      <c r="T43" s="15">
+      <c r="T43" s="12">
         <v>22173.913</v>
       </c>
     </row>
@@ -3925,11 +3940,11 @@
         <v>80</v>
       </c>
       <c r="E44" s="2">
-        <f>PI()*((C44/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>25446.900494077323</v>
       </c>
       <c r="F44" s="2">
-        <f>E44*(1000000/((C44+D44)^2))</f>
+        <f t="shared" si="18"/>
         <v>376433.43926149886</v>
       </c>
       <c r="G44" s="2">
@@ -3940,15 +3955,15 @@
         <v>90</v>
       </c>
       <c r="I44" s="2">
-        <f>PI()*((G44/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>373554.41778713354</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11700</v>
       </c>
       <c r="M44" s="2">
@@ -3964,18 +3979,18 @@
         <v>1100</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>677699451.54924142</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>107513154.5874767</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.15864429924164522</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="12">
         <v>22173.913</v>
       </c>
     </row>
@@ -3993,11 +4008,11 @@
         <v>80</v>
       </c>
       <c r="E45" s="2">
-        <f>PI()*((C45/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F45" s="2">
-        <f>E45*(1000000/((C45+D45)^2))</f>
+        <f t="shared" si="18"/>
         <v>318053.80170640472</v>
       </c>
       <c r="G45" s="2">
@@ -4008,15 +4023,15 @@
         <v>80</v>
       </c>
       <c r="I45" s="2">
-        <f>PI()*((G45/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>20106.192982974677</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349065.85039886594</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5720</v>
       </c>
       <c r="M45" s="2">
@@ -4032,18 +4047,18 @@
         <v>1000</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>333408545.21968567</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25696971.269303072</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7073523272689737E-2</v>
       </c>
-      <c r="T45" s="15">
+      <c r="T45" s="12">
         <v>22173.913</v>
       </c>
     </row>
@@ -4061,11 +4076,11 @@
         <v>100</v>
       </c>
       <c r="E46" s="2">
-        <f>PI()*((C46/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F46" s="2">
-        <f>E46*(1000000/((C46+D46)^2))</f>
+        <f t="shared" si="18"/>
         <v>360416.84709497885</v>
       </c>
       <c r="G46" s="2">
@@ -4075,15 +4090,15 @@
         <v>150</v>
       </c>
       <c r="I46" s="2">
-        <f>PI()*((G46/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256456.54315018721</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8400</v>
       </c>
       <c r="M46" s="2">
@@ -4099,18 +4114,18 @@
         <v>3000</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1122316129.3011987</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>55417694.409323953</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.937797200137304E-2</v>
       </c>
-      <c r="T46" s="10">
+      <c r="T46" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4128,11 +4143,11 @@
         <v>90</v>
       </c>
       <c r="E47" s="2">
-        <f>PI()*((C47/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F47" s="2">
-        <f>E47*(1000000/((C47+D47)^2))</f>
+        <f t="shared" si="18"/>
         <v>384845.10006474965</v>
       </c>
       <c r="G47" s="2">
@@ -4142,15 +4157,15 @@
         <v>110</v>
       </c>
       <c r="I47" s="2">
-        <f>PI()*((G47/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>369297.42213626957</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7600</v>
       </c>
       <c r="M47" s="2">
@@ -4166,18 +4181,18 @@
         <v>2000</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>867047247.18563211</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>45364597.917836614</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.2320791127688331E-2</v>
       </c>
-      <c r="T47" s="10">
+      <c r="T47" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4195,11 +4210,11 @@
         <v>90</v>
       </c>
       <c r="E48" s="2">
-        <f>PI()*((C48/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>45238.93421169302</v>
       </c>
       <c r="F48" s="2">
-        <f>E48*(1000000/((C48+D48)^2))</f>
+        <f t="shared" si="18"/>
         <v>415417.21039203875</v>
       </c>
       <c r="G48" s="2">
@@ -4209,15 +4224,15 @@
         <v>130</v>
       </c>
       <c r="I48" s="2">
-        <f>PI()*((G48/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310312.41721172654</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6380</v>
       </c>
       <c r="M48" s="2">
@@ -4233,18 +4248,18 @@
         <v>1900</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>738073236.81552792</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>31969161.002195094</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.3314347963798856E-2</v>
       </c>
-      <c r="T48" s="10">
+      <c r="T48" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4262,11 +4277,11 @@
         <v>60</v>
       </c>
       <c r="E49" s="2">
-        <f>PI()*((C49/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>22698.006922186254</v>
       </c>
       <c r="F49" s="2">
-        <f>E49*(1000000/((C49+D49)^2))</f>
+        <f t="shared" si="18"/>
         <v>429073.85486174392</v>
       </c>
       <c r="G49" s="2">
@@ -4276,15 +4291,15 @@
         <v>80</v>
       </c>
       <c r="I49" s="2">
-        <f>PI()*((G49/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>25446.900494077323</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>376433.43926149886</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5620</v>
       </c>
       <c r="M49" s="2">
@@ -4300,18 +4315,18 @@
         <v>1200</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>576113729.89368916</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24806329.752010364</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.305804299541325E-2</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4329,11 +4344,11 @@
         <v>90</v>
       </c>
       <c r="E50" s="2">
-        <f>PI()*((C50/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>41547.562843725012</v>
       </c>
       <c r="F50" s="2">
-        <f>E50*(1000000/((C50+D50)^2))</f>
+        <f t="shared" si="18"/>
         <v>405737.91839575209</v>
       </c>
       <c r="G50" s="2">
@@ -4343,15 +4358,15 @@
         <v>100</v>
       </c>
       <c r="I50" s="2">
-        <f>PI()*((G50/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>337132.86205288803</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4480</v>
       </c>
       <c r="M50" s="2">
@@ -4367,18 +4382,18 @@
         <v>1300</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>516549219.22083521</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15763255.298652146</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.0516463314821191E-2</v>
       </c>
-      <c r="T50" s="10">
+      <c r="T50" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4396,11 +4411,11 @@
         <v>60</v>
       </c>
       <c r="E51" s="2">
-        <f>PI()*((C51/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F51" s="2">
-        <f>E51*(1000000/((C51+D51)^2))</f>
+        <f t="shared" si="18"/>
         <v>475117.40748734522</v>
       </c>
       <c r="G51" s="2">
@@ -4410,15 +4425,15 @@
         <v>100</v>
       </c>
       <c r="I51" s="2">
-        <f>PI()*((G51/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>34636.059005827468</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>360416.84709497885</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3500</v>
       </c>
       <c r="M51" s="2">
@@ -4434,18 +4449,18 @@
         <v>1400</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>443714922.76224476</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9621127.5016187411</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.1683128080806104E-2</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T51" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4463,11 +4478,11 @@
         <v>100</v>
       </c>
       <c r="E52" s="2">
-        <f>PI()*((C52/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F52" s="2">
-        <f>E52*(1000000/((C52+D52)^2))</f>
+        <f t="shared" si="18"/>
         <v>360416.84709497885</v>
       </c>
       <c r="G52" s="2">
@@ -4477,15 +4492,15 @@
         <v>100</v>
       </c>
       <c r="I52" s="2">
-        <f>PI()*((G52/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>34636.059005827468</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>360416.84709497885</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3940</v>
       </c>
       <c r="M52" s="2">
@@ -4501,18 +4516,18 @@
         <v>1000</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>422211857.66805446</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12192206.929316629</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.8876988431012319E-2</v>
       </c>
-      <c r="T52" s="10">
+      <c r="T52" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4530,11 +4545,11 @@
         <v>80</v>
       </c>
       <c r="E53" s="2">
-        <f>PI()*((C53/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>41547.562843725012</v>
       </c>
       <c r="F53" s="2">
-        <f>E53*(1000000/((C53+D53)^2))</f>
+        <f t="shared" si="18"/>
         <v>432336.76216155058</v>
       </c>
       <c r="G53" s="2">
@@ -4544,15 +4559,15 @@
         <v>80</v>
       </c>
       <c r="I53" s="2">
-        <f>PI()*((G53/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>388928.30862342776</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2360</v>
       </c>
       <c r="M53" s="2">
@@ -4568,18 +4583,18 @@
         <v>1600</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>393788020.79510069</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4374353.6108584283</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1108396852768996E-2</v>
       </c>
-      <c r="T53" s="10">
+      <c r="T53" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4597,11 +4612,11 @@
         <v>50</v>
       </c>
       <c r="E54" s="2">
-        <f>PI()*((C54/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F54" s="2">
-        <f>E54*(1000000/((C54+D54)^2))</f>
+        <f t="shared" si="18"/>
         <v>391340.26134682546</v>
       </c>
       <c r="G54" s="2">
@@ -4611,15 +4626,15 @@
         <v>80</v>
       </c>
       <c r="I54" s="2">
-        <f>PI()*((G54/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>11309.733552923255</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>282743.3388230814</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3120</v>
       </c>
       <c r="M54" s="2">
@@ -4635,18 +4650,18 @@
         <v>1000</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>358652355.68692726</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7645379.8817761205</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.1316965469620062E-2</v>
       </c>
-      <c r="T54" s="10">
+      <c r="T54" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4664,11 +4679,11 @@
         <v>50</v>
       </c>
       <c r="E55" s="2">
-        <f>PI()*((C55/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>20106.192982974677</v>
       </c>
       <c r="F55" s="2">
-        <f>E55*(1000000/((C55+D55)^2))</f>
+        <f t="shared" si="18"/>
         <v>455922.74337811058</v>
       </c>
       <c r="G55" s="2">
@@ -4678,15 +4693,15 @@
         <v>90</v>
       </c>
       <c r="I55" s="2">
-        <f>PI()*((G55/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>13273.228961416877</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>274240.2677978694</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>580</v>
       </c>
       <c r="M55" s="2">
@@ -4702,18 +4717,18 @@
         <v>1300</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>222416177.05430236</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>264207.9421669016</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.1878989454188662E-3</v>
       </c>
-      <c r="T55" s="10">
+      <c r="T55" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4731,11 +4746,11 @@
         <v>70</v>
       </c>
       <c r="E56" s="2">
-        <f>PI()*((C56/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>53092.915845667507</v>
       </c>
       <c r="F56" s="2">
-        <f>E56*(1000000/((C56+D56)^2))</f>
+        <f t="shared" si="18"/>
         <v>487538.25386287883</v>
       </c>
       <c r="G56" s="2">
@@ -4745,15 +4760,15 @@
         <v>60</v>
       </c>
       <c r="I56" s="2">
-        <f>PI()*((G56/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>453645.97917836613</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14500</v>
       </c>
       <c r="M56" s="2">
@@ -4769,18 +4784,18 @@
         <v>2100</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1500720961.3567343</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>165129963.85431349</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11003375584560832</v>
       </c>
-      <c r="T56" s="10">
+      <c r="T56" s="8">
         <v>38666</v>
       </c>
     </row>
@@ -4798,11 +4813,11 @@
         <v>40</v>
       </c>
       <c r="E57" s="2">
-        <f>PI()*((C57/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>49087.385212340516</v>
       </c>
       <c r="F57" s="2">
-        <f>E57*(1000000/((C57+D57)^2))</f>
+        <f t="shared" si="18"/>
         <v>583678.77779239614</v>
       </c>
       <c r="G57" s="2">
@@ -4812,15 +4827,15 @@
         <v>60</v>
       </c>
       <c r="I57" s="2">
-        <f>PI()*((G57/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>429073.85486174392</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4300</v>
       </c>
       <c r="M57" s="2">
@@ -4836,18 +4851,18 @@
         <v>2500</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>254700768.66620225</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>14522012.041218819</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.7015972575452344E-2</v>
       </c>
-      <c r="T57" s="15">
+      <c r="T57" s="12">
         <v>10038.462</v>
       </c>
     </row>
@@ -4865,11 +4880,11 @@
         <v>50</v>
       </c>
       <c r="E58" s="2">
-        <f>PI()*((C58/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>41547.562843725012</v>
       </c>
       <c r="F58" s="2">
-        <f>E58*(1000000/((C58+D58)^2))</f>
+        <f t="shared" si="18"/>
         <v>529943.40361894155</v>
       </c>
       <c r="G58" s="2">
@@ -4879,15 +4894,15 @@
         <v>30</v>
       </c>
       <c r="I58" s="2">
-        <f>PI()*((G58/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>608212.337734984</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5000</v>
       </c>
       <c r="M58" s="2">
@@ -4903,18 +4918,18 @@
         <v>2100</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>254700768.66620225</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19634954.084936205</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7090282011157835E-2</v>
       </c>
-      <c r="T58" s="15">
+      <c r="T58" s="12">
         <v>10038.462</v>
       </c>
     </row>
@@ -4932,11 +4947,11 @@
         <v>80</v>
       </c>
       <c r="E59" s="2">
-        <f>PI()*((C59/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>38013.2711084365</v>
       </c>
       <c r="F59" s="2">
-        <f>E59*(1000000/((C59+D59)^2))</f>
+        <f t="shared" si="18"/>
         <v>422369.67898262775</v>
       </c>
       <c r="G59" s="2">
@@ -4946,15 +4961,15 @@
         <v>50</v>
       </c>
       <c r="I59" s="2">
-        <f>PI()*((G59/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>15393.804002589986</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>426421.1635066478</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3100</v>
       </c>
       <c r="M59" s="2">
@@ -4970,18 +4985,18 @@
         <v>2200</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>195726700.56702563</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7547676.3502494777</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.8562323527570087E-2</v>
       </c>
-      <c r="T59" s="15">
+      <c r="T59" s="12">
         <v>10038.462</v>
       </c>
     </row>
@@ -4999,11 +5014,11 @@
         <v>90</v>
       </c>
       <c r="E60" s="2">
-        <f>PI()*((C60/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F60" s="2">
-        <f>E60*(1000000/((C60+D60)^2))</f>
+        <f t="shared" si="18"/>
         <v>384845.10006474965</v>
       </c>
       <c r="G60" s="2">
@@ -5013,15 +5028,15 @@
         <v>30</v>
       </c>
       <c r="I60" s="2">
-        <f>PI()*((G60/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>34636.059005827468</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>601320.46885117132</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2800</v>
       </c>
       <c r="M60" s="2">
@@ -5037,18 +5052,18 @@
         <v>1800</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>161327248.36336955</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6157521.6010359945</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.8167895773979506E-2</v>
       </c>
-      <c r="T60" s="15">
+      <c r="T60" s="12">
         <v>10038.462</v>
       </c>
     </row>
@@ -5066,11 +5081,11 @@
         <v>70</v>
       </c>
       <c r="E61" s="2">
-        <f>PI()*((C61/2)^2)</f>
+        <f t="shared" si="17"/>
         <v>38013.2711084365</v>
       </c>
       <c r="F61" s="2">
-        <f>E61*(1000000/((C61+D61)^2))</f>
+        <f t="shared" si="18"/>
         <v>452000.8455224316</v>
       </c>
       <c r="G61" s="2">
@@ -5080,15 +5095,15 @@
         <v>70</v>
       </c>
       <c r="I61" s="2">
-        <f>PI()*((G61/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>11309.733552923255</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313289.01808651676</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3400</v>
       </c>
       <c r="M61" s="2">
@@ -5104,18 +5119,18 @@
         <v>2300</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>249653813.08064088</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9079202.7688745018</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.6367170430286283E-2</v>
       </c>
-      <c r="T61" s="13">
+      <c r="T61" s="10">
         <v>14108.911</v>
       </c>
     </row>
@@ -5133,15 +5148,15 @@
         <v>50</v>
       </c>
       <c r="I62" s="2">
-        <f>PI()*((G62/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>492237.39060152572</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2600</v>
       </c>
       <c r="M62" s="2">
@@ -5157,18 +5172,18 @@
         <v>2100</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>208964277.00150198</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5309291.5845667506</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.5407651780254233E-2</v>
       </c>
-      <c r="T62" s="13">
+      <c r="T62" s="10">
         <v>14108.911</v>
       </c>
     </row>
@@ -5190,7 +5205,7 @@
         <v>15393.804002589986</v>
       </c>
       <c r="F63" s="2">
-        <f>E63*(1000000/((C63+D63)^2))</f>
+        <f t="shared" ref="F63:F76" si="19">E63*(1000000/((C63+D63)^2))</f>
         <v>349065.85039886588</v>
       </c>
       <c r="G63" s="2">
@@ -5200,15 +5215,15 @@
         <v>60</v>
       </c>
       <c r="I63" s="2">
-        <f>PI()*((G63/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>429073.85486174392</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2800</v>
       </c>
       <c r="M63" s="2">
@@ -5224,18 +5239,18 @@
         <v>2000</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>208964277.00150198</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6157521.6010359945</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.9466862419703133E-2</v>
       </c>
-      <c r="T63" s="13">
+      <c r="T63" s="10">
         <v>14108.911</v>
       </c>
     </row>
@@ -5257,7 +5272,7 @@
         <v>57255.526111673978</v>
       </c>
       <c r="F64" s="2">
-        <f>E64*(1000000/((C64+D64)^2))</f>
+        <f t="shared" si="19"/>
         <v>418228.82477482822</v>
       </c>
       <c r="G64" s="2">
@@ -5267,18 +5282,18 @@
         <v>80</v>
       </c>
       <c r="I64" s="2">
-        <f>PI()*((G64/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>388928.30862342776</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26980</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="13">
         <v>30000</v>
       </c>
       <c r="N64" s="2">
@@ -5291,18 +5306,18 @@
         <v>1200</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1637845773.6826868</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>571707345.25953591</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.34906054919570068</v>
       </c>
-      <c r="T64" s="15">
+      <c r="T64" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5324,7 +5339,7 @@
         <v>13273.228961416877</v>
       </c>
       <c r="F65" s="2">
-        <f>E65*(1000000/((C65+D65)^2))</f>
+        <f t="shared" si="19"/>
         <v>367679.47261542594</v>
       </c>
       <c r="G65" s="2">
@@ -5334,18 +5349,18 @@
         <v>70</v>
       </c>
       <c r="I65" s="2">
-        <f>PI()*((G65/2)^2)</f>
+        <f t="shared" si="12"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>394062.62017684471</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M65" s="13">
         <v>27000</v>
       </c>
       <c r="N65" s="2">
@@ -5358,18 +5373,18 @@
         <v>1300</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1363226816.3611867</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>452389342.11693019</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.33185185083468144</v>
       </c>
-      <c r="T65" s="15">
+      <c r="T65" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5391,7 +5406,7 @@
         <v>11309.733552923255</v>
       </c>
       <c r="F66" s="2">
-        <f>E66*(1000000/((C66+D66)^2))</f>
+        <f t="shared" si="19"/>
         <v>282743.3388230814</v>
       </c>
       <c r="G66" s="2">
@@ -5401,15 +5416,15 @@
         <v>60</v>
       </c>
       <c r="I66" s="2">
-        <f>PI()*((G66/2)^2)</f>
+        <f t="shared" ref="I66:I83" si="20">PI()*((G66/2)^2)</f>
         <v>31415.926535897932</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>464732.64106357889</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18000</v>
       </c>
       <c r="M66" s="2">
@@ -5425,18 +5440,18 @@
         <v>1500</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>936149107.7478776</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>254469004.94077325</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.27182529239701686</v>
       </c>
-      <c r="T66" s="15">
+      <c r="T66" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5454,11 +5469,11 @@
         <v>70</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E75" si="13">PI()*((C67/2)^2)</f>
+        <f t="shared" ref="E67:E75" si="21">PI()*((C67/2)^2)</f>
         <v>53092.915845667507</v>
       </c>
       <c r="F67" s="2">
-        <f>E67*(1000000/((C67+D67)^2))</f>
+        <f t="shared" si="19"/>
         <v>487538.25386287883</v>
       </c>
       <c r="G67" s="2">
@@ -5468,15 +5483,15 @@
         <v>40</v>
       </c>
       <c r="I67" s="2">
-        <f>PI()*((G67/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>562326.49568693049</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18040</v>
       </c>
       <c r="M67" s="2">
@@ -5492,18 +5507,18 @@
         <v>1200</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>893936340.57372582</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>255601234.93312702</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.28592778180276557</v>
       </c>
-      <c r="T67" s="15">
+      <c r="T67" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5521,11 +5536,11 @@
         <v>80</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>28352.873698647883</v>
       </c>
       <c r="F68" s="2">
-        <f>E68*(1000000/((C68+D68)^2))</f>
+        <f t="shared" si="19"/>
         <v>388928.30862342776</v>
       </c>
       <c r="G68" s="2">
@@ -5535,15 +5550,15 @@
         <v>50</v>
       </c>
       <c r="I68" s="2">
-        <f>PI()*((G68/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:J131" si="14">I68*(1000000/((G68+H68)^2))</f>
+        <f t="shared" ref="J68:J131" si="22">I68*(1000000/((G68+H68)^2))</f>
         <v>502654.82457436691</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15000</v>
       </c>
       <c r="M68" s="2">
@@ -5559,18 +5574,18 @@
         <v>1200</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>698210445.57694471</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>176714586.76442587</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.25309645234310868</v>
       </c>
-      <c r="T68" s="15">
+      <c r="T68" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5588,11 +5603,11 @@
         <v>90</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F69" s="2">
-        <f>E69*(1000000/((C69+D69)^2))</f>
+        <f t="shared" si="19"/>
         <v>256456.54315018718</v>
       </c>
       <c r="G69" s="2">
@@ -5602,15 +5617,15 @@
         <v>40</v>
       </c>
       <c r="I69" s="2">
-        <f>PI()*((G69/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>535971.14742245525</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10600</v>
       </c>
       <c r="M69" s="2">
@@ -5626,18 +5641,18 @@
         <v>1100</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>446192715.47578984</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>88247337.639337286</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.19777852613581168</v>
       </c>
-      <c r="T69" s="15">
+      <c r="T69" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5655,11 +5670,11 @@
         <v>90</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F70" s="2">
-        <f>E70*(1000000/((C70+D70)^2))</f>
+        <f t="shared" si="19"/>
         <v>256456.54315018718</v>
       </c>
       <c r="G70" s="2">
@@ -5669,15 +5684,15 @@
         <v>40</v>
       </c>
       <c r="I70" s="2">
-        <f>PI()*((G70/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>535971.14742245525</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10400</v>
       </c>
       <c r="M70" s="2">
@@ -5693,18 +5708,18 @@
         <v>1100</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>446192715.47578984</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>84948665.353068009</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.190385594400582</v>
       </c>
-      <c r="T70" s="15">
+      <c r="T70" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5722,11 +5737,11 @@
         <v>70</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>28352.873698647883</v>
       </c>
       <c r="F71" s="2">
-        <f>E71*(1000000/((C71+D71)^2))</f>
+        <f t="shared" si="19"/>
         <v>419421.20855987992</v>
       </c>
       <c r="G71" s="2">
@@ -5736,15 +5751,15 @@
         <v>50</v>
       </c>
       <c r="I71" s="2">
-        <f>PI()*((G71/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>468967.08516913751</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9360</v>
       </c>
       <c r="M71" s="2">
@@ -5760,18 +5775,18 @@
         <v>1400</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>408065932.15606624</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>68808418.935985088</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.16862083676632203</v>
       </c>
-      <c r="T71" s="15">
+      <c r="T71" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5789,11 +5804,11 @@
         <v>80</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>28352.873698647883</v>
       </c>
       <c r="F72" s="2">
-        <f>E72*(1000000/((C72+D72)^2))</f>
+        <f t="shared" si="19"/>
         <v>388928.30862342776</v>
       </c>
       <c r="G72" s="2">
@@ -5803,15 +5818,15 @@
         <v>70</v>
       </c>
       <c r="I72" s="2">
-        <f>PI()*((G72/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>452000.8455224316</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5900</v>
       </c>
       <c r="M72" s="2">
@@ -5827,18 +5842,18 @@
         <v>1600</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>283273452.38898402</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27339710.067865174</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.6513491953785238E-2</v>
       </c>
-      <c r="T72" s="15">
+      <c r="T72" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5856,11 +5871,11 @@
         <v>90</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F73" s="2">
-        <f>E73*(1000000/((C73+D73)^2))</f>
+        <f t="shared" si="19"/>
         <v>306796.15757712827</v>
       </c>
       <c r="G73" s="2">
@@ -5870,15 +5885,15 @@
         <v>60</v>
       </c>
       <c r="I73" s="2">
-        <f>PI()*((G73/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>25446.900494077323</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>441786.46691106464</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6680</v>
       </c>
       <c r="M73" s="2">
@@ -5894,18 +5909,18 @@
         <v>1200</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>283273452.38898402</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>35046351.006386295</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.12371915091521363</v>
       </c>
-      <c r="T73" s="15">
+      <c r="T73" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5923,11 +5938,11 @@
         <v>60</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F74" s="2">
-        <f>E74*(1000000/((C74+D74)^2))</f>
+        <f t="shared" si="19"/>
         <v>400713.34867216751</v>
       </c>
       <c r="G74" s="2">
@@ -5937,15 +5952,15 @@
         <v>40</v>
       </c>
       <c r="I74" s="2">
-        <f>PI()*((G74/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>562326.49568693049</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3220</v>
       </c>
       <c r="M74" s="2">
@@ -5961,18 +5976,18 @@
         <v>1200</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>162169937.09342134</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8143322.3173701027</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.0214746723857791E-2</v>
       </c>
-      <c r="T74" s="15">
+      <c r="T74" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -5990,11 +6005,11 @@
         <v>70</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>9503.317777109125</v>
       </c>
       <c r="F75" s="2">
-        <f>E75*(1000000/((C75+D75)^2))</f>
+        <f t="shared" si="19"/>
         <v>293312.27707126929</v>
       </c>
       <c r="G75" s="2">
@@ -6004,15 +6019,15 @@
         <v>30</v>
       </c>
       <c r="I75" s="2">
-        <f>PI()*((G75/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>34636.059005827468</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>601320.46885117132</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3280</v>
       </c>
       <c r="M75" s="2">
@@ -6028,18 +6043,18 @@
         <v>1100</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>152705007.69561926</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8449627.6010951083</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.5333009235279375E-2</v>
       </c>
-      <c r="T75" s="15">
+      <c r="T75" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -6061,7 +6076,7 @@
         <v>22698.006922186254</v>
       </c>
       <c r="F76" s="2">
-        <f>E76*(1000000/((C76+D76)^2))</f>
+        <f t="shared" si="19"/>
         <v>468967.08516913751</v>
       </c>
       <c r="G76" s="2">
@@ -6071,15 +6086,15 @@
         <v>70</v>
       </c>
       <c r="I76" s="2">
-        <f>PI()*((G76/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>9503.317777109125</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>293312.27707126929</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2900</v>
       </c>
       <c r="M76" s="2">
@@ -6095,18 +6110,18 @@
         <v>1300</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>149592077.40668011</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6605198.5541725401</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.4154735121537808E-2</v>
       </c>
-      <c r="T76" s="15">
+      <c r="T76" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -6124,15 +6139,15 @@
         <v>100</v>
       </c>
       <c r="I77" s="2">
-        <f>PI()*((G77/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>28352.873698647883</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>337132.86205288803</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2900</v>
       </c>
       <c r="M77" s="2">
@@ -6148,18 +6163,18 @@
         <v>1100</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>137348440.17948371</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6605198.5541725401</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.8090815924381976E-2</v>
       </c>
-      <c r="T77" s="15">
+      <c r="T77" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -6177,11 +6192,11 @@
         <v>50</v>
       </c>
       <c r="E78" s="2">
-        <f>PI()*((C78/2)^2)</f>
+        <f t="shared" ref="E78:E83" si="23">PI()*((C78/2)^2)</f>
         <v>13273.228961416877</v>
       </c>
       <c r="F78" s="2">
-        <f>E78*(1000000/((C78+D78)^2))</f>
+        <f t="shared" ref="F78:F83" si="24">E78*(1000000/((C78+D78)^2))</f>
         <v>409667.56053755787</v>
       </c>
       <c r="G78" s="2">
@@ -6191,15 +6206,15 @@
         <v>130</v>
       </c>
       <c r="I78" s="2">
-        <f>PI()*((G78/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>9503.317777109125</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>164988.15585258897</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2040</v>
       </c>
       <c r="M78" s="2">
@@ -6215,18 +6230,18 @@
         <v>900</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>97051880.654142305</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3268512.9967948208</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.3677997528379848E-2</v>
       </c>
-      <c r="T78" s="15">
+      <c r="T78" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -6244,11 +6259,11 @@
         <v>70</v>
       </c>
       <c r="E79" s="2">
-        <f>PI()*((C79/2)^2)</f>
+        <f t="shared" si="23"/>
         <v>13273.228961416877</v>
       </c>
       <c r="F79" s="2">
-        <f>E79*(1000000/((C79+D79)^2))</f>
+        <f t="shared" si="24"/>
         <v>331830.72403542191</v>
       </c>
       <c r="G79" s="2">
@@ -6258,15 +6273,15 @@
         <v>40</v>
       </c>
       <c r="I79" s="2">
-        <f>PI()*((G79/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>545415.39124822803</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7740</v>
       </c>
       <c r="M79" s="2">
@@ -6282,18 +6297,18 @@
         <v>1300</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>332409692.96067488</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>47051319.01354897</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.14154617031313613</v>
       </c>
-      <c r="T79" s="15">
+      <c r="T79" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -6311,11 +6326,11 @@
         <v>90</v>
       </c>
       <c r="E80" s="2">
-        <f>PI()*((C80/2)^2)</f>
+        <f t="shared" si="23"/>
         <v>45238.93421169302</v>
       </c>
       <c r="F80" s="2">
-        <f>E80*(1000000/((C80+D80)^2))</f>
+        <f t="shared" si="24"/>
         <v>415417.21039203875</v>
       </c>
       <c r="G80" s="2">
@@ -6325,18 +6340,18 @@
         <v>40</v>
       </c>
       <c r="I80" s="2">
-        <f>PI()*((G80/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>61575.216010359945</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>601320.46885117132</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>28900</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M80" s="13">
         <v>33000</v>
       </c>
       <c r="N80" s="2">
@@ -6349,18 +6364,18 @@
         <v>1600</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1939601704.5146887</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>655972400.05118275</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.33819953783517365</v>
       </c>
-      <c r="T80" s="15">
+      <c r="T80" s="12">
         <v>12857.143</v>
       </c>
     </row>
@@ -6378,11 +6393,11 @@
         <v>60</v>
       </c>
       <c r="E81" s="2">
-        <f>PI()*((C81/2)^2)</f>
+        <f t="shared" si="23"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F81" s="2">
-        <f>E81*(1000000/((C81+D81)^2))</f>
+        <f t="shared" si="24"/>
         <v>400713.34867216751</v>
       </c>
       <c r="G81" s="2">
@@ -6392,15 +6407,15 @@
         <v>100</v>
       </c>
       <c r="I81" s="2">
-        <f>PI()*((G81/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>25446.900494077323</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>324577.81242445565</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="M81" s="2">
@@ -6416,18 +6431,18 @@
         <v>1200</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>264843079.94657329</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15904312.808798328</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.0051834512748835E-2</v>
       </c>
-      <c r="T81" s="15">
+      <c r="T81" s="12">
         <v>18351.350999999999</v>
       </c>
     </row>
@@ -6445,11 +6460,11 @@
         <v>170</v>
       </c>
       <c r="E82" s="2">
-        <f>PI()*((C82/2)^2)</f>
+        <f t="shared" si="23"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F82" s="2">
-        <f>E82*(1000000/((C82+D82)^2))</f>
+        <f t="shared" si="24"/>
         <v>134479.59040336809</v>
       </c>
       <c r="G82" s="2">
@@ -6459,15 +6474,15 @@
         <v>70</v>
       </c>
       <c r="I82" s="2">
-        <f>PI()*((G82/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>7853.981633974483</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>271764.07037973992</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10640</v>
       </c>
       <c r="M82" s="2">
@@ -6483,18 +6498,18 @@
         <v>1000</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>494087536.70935607</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>88914611.918959767</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.17995720456973038</v>
       </c>
-      <c r="T82" s="15">
+      <c r="T82" s="12">
         <v>16733.332999999999</v>
       </c>
     </row>
@@ -6512,11 +6527,11 @@
         <v>110</v>
       </c>
       <c r="E83" s="2">
-        <f>PI()*((C83/2)^2)</f>
+        <f t="shared" si="23"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F83" s="2">
-        <f>E83*(1000000/((C83+D83)^2))</f>
+        <f t="shared" si="24"/>
         <v>261412.11059826313</v>
       </c>
       <c r="G83" s="2">
@@ -6526,15 +6541,15 @@
         <v>70</v>
       </c>
       <c r="I83" s="2">
-        <f>PI()*((G83/2)^2)</f>
+        <f t="shared" si="20"/>
         <v>9503.317777109125</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>293312.27707126929</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6860</v>
       </c>
       <c r="M83" s="2">
@@ -6550,18 +6565,18 @@
         <v>900</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>308583978.86111164</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>36960523.410218559</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.11977460251380664</v>
       </c>
-      <c r="T83" s="15">
+      <c r="T83" s="12">
         <v>16733.332999999999</v>
       </c>
     </row>
@@ -6581,7 +6596,7 @@
       <c r="P84" s="2">
         <v>600</v>
       </c>
-      <c r="T84" s="10">
+      <c r="T84" s="8">
         <v>20333</v>
       </c>
     </row>
@@ -6599,11 +6614,11 @@
         <v>80</v>
       </c>
       <c r="E85" s="2">
-        <f>PI()*((C85/2)^2)</f>
+        <f t="shared" ref="E85:E103" si="25">PI()*((C85/2)^2)</f>
         <v>7853.981633974483</v>
       </c>
       <c r="F85" s="2">
-        <f>E85*(1000000/((C85+D85)^2))</f>
+        <f t="shared" ref="F85:F103" si="26">E85*(1000000/((C85+D85)^2))</f>
         <v>242406.84055476799</v>
       </c>
       <c r="G85" s="2">
@@ -6613,11 +6628,11 @@
         <v>80</v>
       </c>
       <c r="I85" s="2">
-        <f>PI()*((G85/2)^2)</f>
+        <f t="shared" ref="I85:I127" si="27">PI()*((G85/2)^2)</f>
         <v>13273.228961416877</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>300980.24855820579</v>
       </c>
       <c r="N85" s="2">
@@ -6629,7 +6644,7 @@
       <c r="P85" s="2">
         <v>800</v>
       </c>
-      <c r="T85" s="10">
+      <c r="T85" s="8">
         <v>20333</v>
       </c>
     </row>
@@ -6647,11 +6662,11 @@
         <v>80</v>
       </c>
       <c r="E86" s="2">
-        <f>PI()*((C86/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F86" s="2">
-        <f>E86*(1000000/((C86+D86)^2))</f>
+        <f t="shared" si="26"/>
         <v>242406.84055476799</v>
       </c>
       <c r="G86" s="2">
@@ -6661,15 +6676,15 @@
         <v>90</v>
       </c>
       <c r="I86" s="2">
-        <f>PI()*((G86/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>13273.228961416877</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>274240.2677978694</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" ref="K86:K125" si="15">M86-(2*N86+2*P86+2*O86)</f>
+        <f t="shared" ref="K86:K125" si="28">M86-(2*N86+2*P86+2*O86)</f>
         <v>900</v>
       </c>
       <c r="M86" s="2">
@@ -6685,18 +6700,18 @@
         <v>400</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" ref="Q86:Q116" si="16">(PI()*(M86/2))*((M86/2)+SQRT((T86^2+(M86/2)^2)))</f>
+        <f t="shared" ref="Q86:Q116" si="29">(PI()*(M86/2))*((M86/2)+SQRT((T86^2+(M86/2)^2)))</f>
         <v>50370086.115124159</v>
       </c>
       <c r="R86" s="2">
-        <f t="shared" ref="R86:R125" si="17">PI()*((K86/2)^2)</f>
+        <f t="shared" ref="R86:R125" si="30">PI()*((K86/2)^2)</f>
         <v>636172.51235193305</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" ref="S86:S125" si="18">R86/Q86</f>
+        <f t="shared" ref="S86:S125" si="31">R86/Q86</f>
         <v>1.2629966740535618E-2</v>
       </c>
-      <c r="T86" s="12">
+      <c r="T86" s="9">
         <v>15000</v>
       </c>
     </row>
@@ -6714,11 +6729,11 @@
         <v>50</v>
       </c>
       <c r="E87" s="2">
-        <f>PI()*((C87/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F87" s="2">
-        <f>E87*(1000000/((C87+D87)^2))</f>
+        <f t="shared" si="26"/>
         <v>349065.85039886588</v>
       </c>
       <c r="G87" s="2">
@@ -6728,15 +6743,15 @@
         <v>180</v>
       </c>
       <c r="I87" s="2">
-        <f>PI()*((G87/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>185289.85242601024</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6300</v>
       </c>
       <c r="M87" s="2">
@@ -6752,18 +6767,18 @@
         <v>1400</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>335360886.43841797</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>31172453.105244722</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.2951964184913652E-2</v>
       </c>
-      <c r="T87" s="13">
+      <c r="T87" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -6781,11 +6796,11 @@
         <v>60</v>
       </c>
       <c r="E88" s="2">
-        <f>PI()*((C88/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F88" s="2">
-        <f>E88*(1000000/((C88+D88)^2))</f>
+        <f t="shared" si="26"/>
         <v>306796.15757712827</v>
       </c>
       <c r="G88" s="2">
@@ -6795,15 +6810,15 @@
         <v>70</v>
       </c>
       <c r="I88" s="2">
-        <f>PI()*((G88/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>5026.5482457436692</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>223402.14425527418</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>3420</v>
       </c>
       <c r="M88" s="2">
@@ -6819,18 +6834,18 @@
         <v>800</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>157848349.33127955</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>9186331.0783619136</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.8197194441877716E-2</v>
       </c>
-      <c r="T88" s="13">
+      <c r="T88" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -6848,11 +6863,11 @@
         <v>60</v>
       </c>
       <c r="E89" s="2">
-        <f>PI()*((C89/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F89" s="2">
-        <f>E89*(1000000/((C89+D89)^2))</f>
+        <f t="shared" si="26"/>
         <v>306796.15757712827</v>
       </c>
       <c r="G89" s="2">
@@ -6862,15 +6877,15 @@
         <v>70</v>
       </c>
       <c r="I89" s="2">
-        <f>PI()*((G89/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>248504.88763747385</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2280</v>
       </c>
       <c r="M89" s="2">
@@ -6886,18 +6901,18 @@
         <v>700</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>106282984.90174983</v>
       </c>
       <c r="R89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>4082813.8126052953</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.8414557291362603E-2</v>
       </c>
-      <c r="T89" s="13">
+      <c r="T89" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -6915,11 +6930,11 @@
         <v>40</v>
       </c>
       <c r="E90" s="2">
-        <f>PI()*((C90/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>15393.804002589986</v>
       </c>
       <c r="F90" s="2">
-        <f>E90*(1000000/((C90+D90)^2))</f>
+        <f t="shared" si="26"/>
         <v>475117.40748734522</v>
       </c>
       <c r="G90" s="2">
@@ -6929,15 +6944,15 @@
         <v>70</v>
       </c>
       <c r="I90" s="2">
-        <f>PI()*((G90/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>7853.981633974483</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>271764.07037973992</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1260</v>
       </c>
       <c r="M90" s="2">
@@ -6953,18 +6968,18 @@
         <v>600</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>73623071.121272609</v>
       </c>
       <c r="R90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1246898.1242097889</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.6936241659301153E-2</v>
       </c>
-      <c r="T90" s="13">
+      <c r="T90" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -6982,11 +6997,11 @@
         <v>50</v>
       </c>
       <c r="E91" s="2">
-        <f>PI()*((C91/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>11309.733552923255</v>
       </c>
       <c r="F91" s="2">
-        <f>E91*(1000000/((C91+D91)^2))</f>
+        <f t="shared" si="26"/>
         <v>391340.26134682546</v>
       </c>
       <c r="G91" s="2">
@@ -6996,15 +7011,15 @@
         <v>60</v>
       </c>
       <c r="I91" s="2">
-        <f>PI()*((G91/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>282743.33882308134</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1240</v>
       </c>
       <c r="M91" s="2">
@@ -7020,18 +7035,18 @@
         <v>600</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>70762606.75200741</v>
       </c>
       <c r="R91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1207628.2160399165</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.7065909121637302E-2</v>
       </c>
-      <c r="T91" s="13">
+      <c r="T91" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -7049,11 +7064,11 @@
         <v>60</v>
       </c>
       <c r="E92" s="2">
-        <f>PI()*((C92/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F92" s="2">
-        <f>E92*(1000000/((C92+D92)^2))</f>
+        <f t="shared" si="26"/>
         <v>306796.15757712827</v>
       </c>
       <c r="G92" s="2">
@@ -7063,15 +7078,15 @@
         <v>90</v>
       </c>
       <c r="I92" s="2">
-        <f>PI()*((G92/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>3848.4510006474966</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>150330.11721279283</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>960</v>
       </c>
       <c r="M92" s="2">
@@ -7087,18 +7102,18 @@
         <v>300</v>
       </c>
       <c r="Q92" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>48512488.498816304</v>
       </c>
       <c r="R92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>723822.94738708832</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.4920342571269035E-2</v>
       </c>
-      <c r="T92" s="13">
+      <c r="T92" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -7116,11 +7131,11 @@
         <v>60</v>
       </c>
       <c r="E93" s="2">
-        <f>PI()*((C93/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>7853.981633974483</v>
       </c>
       <c r="F93" s="2">
-        <f>E93*(1000000/((C93+D93)^2))</f>
+        <f t="shared" si="26"/>
         <v>306796.15757712827</v>
       </c>
       <c r="G93" s="2">
@@ -7130,15 +7145,15 @@
         <v>90</v>
       </c>
       <c r="I93" s="2">
-        <f>PI()*((G93/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>3848.4510006474966</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>150330.11721279283</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>760</v>
       </c>
       <c r="M93" s="2">
@@ -7154,18 +7169,18 @@
         <v>400</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>48512488.498816304</v>
       </c>
       <c r="R93" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>453645.97917836613</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.3511174795627115E-3</v>
       </c>
-      <c r="T93" s="13">
+      <c r="T93" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -7183,11 +7198,11 @@
         <v>30</v>
       </c>
       <c r="E94" s="2">
-        <f>PI()*((C94/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>5026.5482457436692</v>
       </c>
       <c r="F94" s="2">
-        <f>E94*(1000000/((C94+D94)^2))</f>
+        <f t="shared" si="26"/>
         <v>415417.2103920388</v>
       </c>
       <c r="G94" s="2">
@@ -7197,15 +7212,15 @@
         <v>50</v>
       </c>
       <c r="I94" s="2">
-        <f>PI()*((G94/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>324577.81242445565</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>380</v>
       </c>
       <c r="M94" s="2">
@@ -7221,18 +7236,18 @@
         <v>300</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>27361136.027007408</v>
       </c>
       <c r="R94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>113411.49479459153</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.1449848676840843E-3</v>
       </c>
-      <c r="T94" s="13">
+      <c r="T94" s="10">
         <v>15275.228999999999</v>
       </c>
     </row>
@@ -7250,11 +7265,11 @@
         <v>60</v>
       </c>
       <c r="E95" s="2">
-        <f>PI()*((C95/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>6361.7251235193307</v>
       </c>
       <c r="F95" s="2">
-        <f>E95*(1000000/((C95+D95)^2))</f>
+        <f t="shared" si="26"/>
         <v>282743.33882308134</v>
       </c>
       <c r="G95" s="2">
@@ -7264,15 +7279,15 @@
         <v>40</v>
       </c>
       <c r="I95" s="2">
-        <f>PI()*((G95/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>11309.733552923255</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>441786.46691106464</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>8400</v>
       </c>
       <c r="M95" s="2">
@@ -7288,18 +7303,18 @@
         <v>2000</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>584563736.99303257</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>55417694.409323953</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.4801799876245957E-2</v>
       </c>
-      <c r="T95" s="13">
+      <c r="T95" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7317,11 +7332,11 @@
         <v>80</v>
       </c>
       <c r="E96" s="2">
-        <f>PI()*((C96/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F96" s="2">
-        <f>E96*(1000000/((C96+D96)^2))</f>
+        <f t="shared" si="26"/>
         <v>411843.74561031471</v>
       </c>
       <c r="G96" s="2">
@@ -7331,15 +7346,15 @@
         <v>40</v>
       </c>
       <c r="I96" s="2">
-        <f>PI()*((G96/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>13273.228961416877</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>459281.27894176042</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>5140</v>
       </c>
       <c r="M96" s="2">
@@ -7355,18 +7370,18 @@
         <v>2600</v>
       </c>
       <c r="Q96" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>466410346.62855577</v>
       </c>
       <c r="R96" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>20749905.317695223</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.4488518463807206E-2</v>
       </c>
-      <c r="T96" s="13">
+      <c r="T96" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7384,11 +7399,11 @@
         <v>90</v>
       </c>
       <c r="E97" s="2">
-        <f>PI()*((C97/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>57255.526111673978</v>
       </c>
       <c r="F97" s="2">
-        <f>E97*(1000000/((C97+D97)^2))</f>
+        <f t="shared" si="26"/>
         <v>441786.46691106464</v>
       </c>
       <c r="G97" s="2">
@@ -7398,15 +7413,15 @@
         <v>70</v>
       </c>
       <c r="I97" s="2">
-        <f>PI()*((G97/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>470748.53498119686</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>5280</v>
       </c>
       <c r="M97" s="2">
@@ -7422,18 +7437,18 @@
         <v>2200</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>429127301.78770375</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>21895644.158459421</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.1023656773279719E-2</v>
       </c>
-      <c r="T97" s="13">
+      <c r="T97" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7451,11 +7466,11 @@
         <v>90</v>
       </c>
       <c r="E98" s="2">
-        <f>PI()*((C98/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>57255.526111673978</v>
       </c>
       <c r="F98" s="2">
-        <f>E98*(1000000/((C98+D98)^2))</f>
+        <f t="shared" si="26"/>
         <v>441786.46691106464</v>
       </c>
       <c r="G98" s="2">
@@ -7465,15 +7480,15 @@
         <v>70</v>
       </c>
       <c r="I98" s="2">
-        <f>PI()*((G98/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>470748.53498119686</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4940</v>
       </c>
       <c r="M98" s="2">
@@ -7489,18 +7504,18 @@
         <v>2200</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>429127301.78770375</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>19166542.620285969</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.4664001895101911E-2</v>
       </c>
-      <c r="T98" s="13">
+      <c r="T98" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7518,11 +7533,11 @@
         <v>80</v>
       </c>
       <c r="E99" s="2">
-        <f>PI()*((C99/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>34636.059005827468</v>
       </c>
       <c r="F99" s="2">
-        <f>E99*(1000000/((C99+D99)^2))</f>
+        <f t="shared" si="26"/>
         <v>411843.74561031471</v>
       </c>
       <c r="G99" s="2">
@@ -7532,15 +7547,15 @@
         <v>50</v>
       </c>
       <c r="I99" s="2">
-        <f>PI()*((G99/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>25446.900494077323</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>481037.81652320077</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4000</v>
       </c>
       <c r="M99" s="2">
@@ -7556,18 +7571,18 @@
         <v>1900</v>
       </c>
       <c r="Q99" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>337918858.43706238</v>
       </c>
       <c r="R99" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>12566370.614359172</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.7187538666770402E-2</v>
       </c>
-      <c r="T99" s="13">
+      <c r="T99" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7585,11 +7600,11 @@
         <v>60</v>
       </c>
       <c r="E100" s="2">
-        <f>PI()*((C100/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>17671.458676442588</v>
       </c>
       <c r="F100" s="2">
-        <f>E100*(1000000/((C100+D100)^2))</f>
+        <f t="shared" si="26"/>
         <v>400713.34867216751</v>
       </c>
       <c r="G100" s="2">
@@ -7599,15 +7614,15 @@
         <v>40</v>
       </c>
       <c r="I100" s="2">
-        <f>PI()*((G100/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>7853.981633974483</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>400713.34867216751</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4840</v>
       </c>
       <c r="M100" s="2">
@@ -7623,18 +7638,18 @@
         <v>1400</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>328190276.84610885</v>
       </c>
       <c r="R100" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>18398423.216483265</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.6060232476388805E-2</v>
       </c>
-      <c r="T100" s="13">
+      <c r="T100" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7652,11 +7667,11 @@
         <v>90</v>
       </c>
       <c r="E101" s="2">
-        <f>PI()*((C101/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>61575.216010359945</v>
       </c>
       <c r="F101" s="2">
-        <f>E101*(1000000/((C101+D101)^2))</f>
+        <f t="shared" si="26"/>
         <v>449782.43981270964</v>
       </c>
       <c r="G101" s="2">
@@ -7666,15 +7681,15 @@
         <v>80</v>
       </c>
       <c r="I101" s="2">
-        <f>PI()*((G101/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>41547.562843725012</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>432336.76216155058</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2200</v>
       </c>
       <c r="M101" s="2">
@@ -7690,18 +7705,18 @@
         <v>2100</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>271478270.45376772</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>3801327.1108436496</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.4002325506530766E-2</v>
       </c>
-      <c r="T101" s="13">
+      <c r="T101" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7719,11 +7734,11 @@
         <v>90</v>
       </c>
       <c r="E102" s="2">
-        <f>PI()*((C102/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>61575.216010359945</v>
       </c>
       <c r="F102" s="2">
-        <f>E102*(1000000/((C102+D102)^2))</f>
+        <f t="shared" si="26"/>
         <v>449782.43981270964</v>
       </c>
       <c r="G102" s="2">
@@ -7733,15 +7748,15 @@
         <v>80</v>
       </c>
       <c r="I102" s="2">
-        <f>PI()*((G102/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>41547.562843725012</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>432336.76216155058</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2000</v>
       </c>
       <c r="M102" s="2">
@@ -7757,18 +7772,18 @@
         <v>2100</v>
       </c>
       <c r="Q102" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>271478270.45376772</v>
       </c>
       <c r="R102" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>3141592.653589793</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.1572169840108072E-2</v>
       </c>
-      <c r="T102" s="13">
+      <c r="T102" s="10">
         <v>21751.825000000001</v>
       </c>
     </row>
@@ -7786,11 +7801,11 @@
         <v>40</v>
       </c>
       <c r="E103" s="2">
-        <f>PI()*((C103/2)^2)</f>
+        <f t="shared" si="25"/>
         <v>5026.5482457436692</v>
       </c>
       <c r="F103" s="2">
-        <f>E103*(1000000/((C103+D103)^2))</f>
+        <f t="shared" si="26"/>
         <v>349065.85039886594</v>
       </c>
       <c r="G103" s="2">
@@ -7800,15 +7815,15 @@
         <v>100</v>
       </c>
       <c r="I103" s="2">
-        <f>PI()*((G103/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>61575.216010359945</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>426421.1635066478</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4500</v>
       </c>
       <c r="M103" s="2">
@@ -7824,18 +7839,18 @@
         <v>3900</v>
       </c>
       <c r="Q103" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>440491784.70245498</v>
       </c>
       <c r="R103" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>15904312.808798328</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.6105810280982725E-2</v>
       </c>
-      <c r="T103" s="15">
+      <c r="T103" s="12">
         <v>13861.228999999999</v>
       </c>
     </row>
@@ -7853,15 +7868,15 @@
         <v>80</v>
       </c>
       <c r="I104" s="2">
-        <f>PI()*((G104/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>363168.11075498007</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1300</v>
       </c>
       <c r="M104" s="2">
@@ -7877,18 +7892,18 @@
         <v>2000</v>
       </c>
       <c r="Q104" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>149022619.53592086</v>
       </c>
       <c r="R104" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1327322.8961416876</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.9068552161757283E-3</v>
       </c>
-      <c r="T104" s="15">
+      <c r="T104" s="12">
         <v>13861.228999999999</v>
       </c>
     </row>
@@ -7906,15 +7921,15 @@
         <v>80</v>
       </c>
       <c r="I105" s="2">
-        <f>PI()*((G105/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>22698.006922186254</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>363168.11075498007</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1240</v>
       </c>
       <c r="M105" s="2">
@@ -7930,18 +7945,18 @@
         <v>2000</v>
       </c>
       <c r="Q105" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>149022619.53592086</v>
       </c>
       <c r="R105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1207628.2160399165</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.1036571481608276E-3</v>
       </c>
-      <c r="T105" s="15">
+      <c r="T105" s="12">
         <v>13861.228999999999</v>
       </c>
     </row>
@@ -7959,11 +7974,11 @@
         <v>130</v>
       </c>
       <c r="E106" s="2">
-        <f>PI()*((C106/2)^2)</f>
+        <f t="shared" ref="E106:E114" si="32">PI()*((C106/2)^2)</f>
         <v>477836.24261100753</v>
       </c>
       <c r="F106" s="2">
-        <f>E106*(1000000/((C106+D106)^2))</f>
+        <f t="shared" ref="F106:F114" si="33">E106*(1000000/((C106+D106)^2))</f>
         <v>577027.22208792123</v>
       </c>
       <c r="G106" s="2">
@@ -7973,15 +7988,15 @@
         <v>110</v>
       </c>
       <c r="I106" s="2">
-        <f>PI()*((G106/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>541060.79476450209</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>612336.79805851309</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>9640</v>
       </c>
       <c r="M106" s="2">
@@ -7997,18 +8012,18 @@
         <v>4600</v>
       </c>
       <c r="Q106" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1599482624.8478813</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>72986737.16525951</v>
       </c>
       <c r="S106" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.5631466094982379E-2</v>
       </c>
-      <c r="T106" s="12">
+      <c r="T106" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8026,11 +8041,11 @@
         <v>130</v>
       </c>
       <c r="E107" s="2">
-        <f>PI()*((C107/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>477836.24261100753</v>
       </c>
       <c r="F107" s="2">
-        <f>E107*(1000000/((C107+D107)^2))</f>
+        <f t="shared" si="33"/>
         <v>577027.22208792123</v>
       </c>
       <c r="G107" s="2">
@@ -8040,15 +8055,15 @@
         <v>110</v>
       </c>
       <c r="I107" s="2">
-        <f>PI()*((G107/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>541060.79476450209</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>612336.79805851309</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>8640</v>
       </c>
       <c r="M107" s="2">
@@ -8064,18 +8079,18 @@
         <v>4600</v>
       </c>
       <c r="Q107" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1599482624.8478813</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>58629658.738354154</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.6655389578820918E-2</v>
       </c>
-      <c r="T107" s="12">
+      <c r="T107" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8093,11 +8108,11 @@
         <v>170</v>
       </c>
       <c r="E108" s="2">
-        <f>PI()*((C108/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>430084.03427644266</v>
       </c>
       <c r="F108" s="2">
-        <f>E108*(1000000/((C108+D108)^2))</f>
+        <f t="shared" si="33"/>
         <v>519362.43723758322</v>
       </c>
       <c r="G108" s="2">
@@ -8107,15 +8122,15 @@
         <v>150</v>
       </c>
       <c r="I108" s="2">
-        <f>PI()*((G108/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>453645.97917836613</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>547815.4560782105</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>5060</v>
       </c>
       <c r="M108" s="2">
@@ -8131,18 +8146,18 @@
         <v>3200</v>
       </c>
       <c r="Q108" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>892309563.35678291</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>20109020.416362908</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.2535923901470589E-2</v>
       </c>
-      <c r="T108" s="12">
+      <c r="T108" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8160,11 +8175,11 @@
         <v>170</v>
       </c>
       <c r="E109" s="2">
-        <f>PI()*((C109/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>430084.03427644266</v>
       </c>
       <c r="F109" s="2">
-        <f>E109*(1000000/((C109+D109)^2))</f>
+        <f t="shared" si="33"/>
         <v>519362.43723758322</v>
       </c>
       <c r="G109" s="2">
@@ -8174,15 +8189,15 @@
         <v>150</v>
       </c>
       <c r="I109" s="2">
-        <f>PI()*((G109/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>453645.97917836613</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>547815.4560782105</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4760</v>
       </c>
       <c r="M109" s="2">
@@ -8198,18 +8213,18 @@
         <v>3200</v>
       </c>
       <c r="Q109" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>892309563.35678291</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>17795237.426994026</v>
       </c>
       <c r="S109" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.9942896678199942E-2</v>
       </c>
-      <c r="T109" s="12">
+      <c r="T109" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8227,11 +8242,11 @@
         <v>100</v>
       </c>
       <c r="E110" s="2">
-        <f>PI()*((C110/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>70685.83470577035</v>
       </c>
       <c r="F110" s="2">
-        <f>E110*(1000000/((C110+D110)^2))</f>
+        <f t="shared" si="33"/>
         <v>441786.46691106469</v>
       </c>
       <c r="G110" s="2">
@@ -8241,15 +8256,15 @@
         <v>100</v>
       </c>
       <c r="I110" s="2">
-        <f>PI()*((G110/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>125663.70614359173</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>502654.82457436691</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2600</v>
       </c>
       <c r="M110" s="2">
@@ -8265,18 +8280,18 @@
         <v>3000</v>
       </c>
       <c r="Q110" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>664080344.14875925</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5309291.5845667506</v>
       </c>
       <c r="S110" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.9949536699092955E-3</v>
       </c>
-      <c r="T110" s="12">
+      <c r="T110" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8294,11 +8309,11 @@
         <v>100</v>
       </c>
       <c r="E111" s="2">
-        <f>PI()*((C111/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>125663.70614359173</v>
       </c>
       <c r="F111" s="2">
-        <f>E111*(1000000/((C111+D111)^2))</f>
+        <f t="shared" si="33"/>
         <v>502654.82457436691</v>
       </c>
       <c r="G111" s="2">
@@ -8308,15 +8323,15 @@
         <v>100</v>
       </c>
       <c r="I111" s="2">
-        <f>PI()*((G111/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>125663.70614359173</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>502654.82457436691</v>
       </c>
       <c r="K111" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2600</v>
       </c>
       <c r="M111" s="2">
@@ -8332,18 +8347,18 @@
         <v>3000</v>
       </c>
       <c r="Q111" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>664080344.14875925</v>
       </c>
       <c r="R111" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5309291.5845667506</v>
       </c>
       <c r="S111" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.9949536699092955E-3</v>
       </c>
-      <c r="T111" s="12">
+      <c r="T111" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8361,11 +8376,11 @@
         <v>80</v>
       </c>
       <c r="E112" s="2">
-        <f>PI()*((C112/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>57255.526111673978</v>
       </c>
       <c r="F112" s="2">
-        <f>E112*(1000000/((C112+D112)^2))</f>
+        <f t="shared" si="33"/>
         <v>467392.04989121616</v>
       </c>
       <c r="G112" s="2">
@@ -8375,15 +8390,15 @@
         <v>100</v>
       </c>
       <c r="I112" s="2">
-        <f>PI()*((G112/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>448999.18799818429</v>
       </c>
       <c r="K112" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2600</v>
       </c>
       <c r="M112" s="2">
@@ -8399,18 +8414,18 @@
         <v>2800</v>
       </c>
       <c r="Q112" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>601555248.59322906</v>
       </c>
       <c r="R112" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5309291.5845667506</v>
       </c>
       <c r="S112" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.8259417517889318E-3</v>
       </c>
-      <c r="T112" s="12">
+      <c r="T112" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8428,11 +8443,11 @@
         <v>80</v>
       </c>
       <c r="E113" s="2">
-        <f>PI()*((C113/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>49087.385212340516</v>
       </c>
       <c r="F113" s="2">
-        <f>E113*(1000000/((C113+D113)^2))</f>
+        <f t="shared" si="33"/>
         <v>450756.52169275034</v>
       </c>
       <c r="G113" s="2">
@@ -8442,15 +8457,15 @@
         <v>80</v>
       </c>
       <c r="I113" s="2">
-        <f>PI()*((G113/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>441786.46691106464</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1900</v>
       </c>
       <c r="M113" s="2">
@@ -8466,18 +8481,18 @@
         <v>2200</v>
       </c>
       <c r="Q113" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>487451523.73107839</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>2835287.3698647884</v>
       </c>
       <c r="S113" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.8165524812862929E-3</v>
       </c>
-      <c r="T113" s="12">
+      <c r="T113" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8495,11 +8510,11 @@
         <v>80</v>
       </c>
       <c r="E114" s="2">
-        <f>PI()*((C114/2)^2)</f>
+        <f t="shared" si="32"/>
         <v>49087.385212340516</v>
       </c>
       <c r="F114" s="2">
-        <f>E114*(1000000/((C114+D114)^2))</f>
+        <f t="shared" si="33"/>
         <v>450756.52169275034</v>
       </c>
       <c r="G114" s="2">
@@ -8509,15 +8524,15 @@
         <v>80</v>
       </c>
       <c r="I114" s="2">
-        <f>PI()*((G114/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>45238.93421169302</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>441786.46691106464</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1500</v>
       </c>
       <c r="M114" s="2">
@@ -8533,18 +8548,18 @@
         <v>2200</v>
       </c>
       <c r="Q114" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>487451523.73107839</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1767145.8676442585</v>
       </c>
       <c r="S114" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.6252750922144482E-3</v>
       </c>
-      <c r="T114" s="12">
+      <c r="T114" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8562,15 +8577,15 @@
         <v>100</v>
       </c>
       <c r="I115" s="2">
-        <f>PI()*((G115/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>448999.18799818429</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2020</v>
       </c>
       <c r="M115" s="2">
@@ -8586,18 +8601,18 @@
         <v>1200</v>
       </c>
       <c r="Q115" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>313168355.82013953</v>
       </c>
       <c r="R115" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>3204738.6659269482</v>
       </c>
       <c r="S115" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.0233277425282107E-2</v>
       </c>
-      <c r="T115" s="12">
+      <c r="T115" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8612,15 +8627,15 @@
         <v>200</v>
       </c>
       <c r="I116" s="2">
-        <f>PI()*((G116/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>785398.16339744825</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1120</v>
       </c>
       <c r="M116" s="2">
@@ -8636,18 +8651,18 @@
         <v>900</v>
       </c>
       <c r="Q116" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>209265192.27840334</v>
       </c>
       <c r="R116" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>985203.45616575913</v>
       </c>
       <c r="S116" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.7079184332531462E-3</v>
       </c>
-      <c r="T116" s="12">
+      <c r="T116" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -8679,15 +8694,15 @@
         <v>60</v>
       </c>
       <c r="I117" s="2">
-        <f>PI()*((G117/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>551327.71002552798</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>10260</v>
       </c>
       <c r="M117" s="2">
@@ -8703,18 +8718,18 @@
         <v>2500</v>
       </c>
       <c r="Q117" s="2">
-        <f t="shared" ref="Q117:Q144" si="19">(PI()*(M117/2))*((M117/2)+SQRT((T117^2+(M117/2)^2)))</f>
+        <f t="shared" ref="Q117:Q138" si="34">(PI()*(M117/2))*((M117/2)+SQRT((T117^2+(M117/2)^2)))</f>
         <v>1302705387.6350217</v>
       </c>
       <c r="R117" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>82676979.705257222</v>
       </c>
       <c r="S117" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.3465600503389327E-2</v>
       </c>
-      <c r="T117" s="15">
+      <c r="T117" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -8746,15 +8761,15 @@
         <v>60</v>
       </c>
       <c r="I118" s="2">
-        <f>PI()*((G118/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>75476.763502494781</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>551327.71002552798</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>10060</v>
       </c>
       <c r="M118" s="2">
@@ -8770,18 +8785,18 @@
         <v>2500</v>
       </c>
       <c r="Q118" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1302705387.6350217</v>
       </c>
       <c r="R118" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>79485121.569209993</v>
       </c>
       <c r="S118" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.1015423996603056E-2</v>
       </c>
-      <c r="T118" s="15">
+      <c r="T118" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -8813,15 +8828,15 @@
         <v>70</v>
       </c>
       <c r="I119" s="2">
-        <f>PI()*((G119/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>96211.275016187414</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>545415.39124822791</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>7360</v>
       </c>
       <c r="M119" s="2">
@@ -8837,18 +8852,18 @@
         <v>1100</v>
       </c>
       <c r="Q119" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>785555143.54028416</v>
       </c>
       <c r="R119" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>42544704.351974413</v>
       </c>
       <c r="S119" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.4158775105509413E-2</v>
       </c>
-      <c r="T119" s="15">
+      <c r="T119" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -8866,15 +8881,15 @@
         <v>70</v>
       </c>
       <c r="I120" s="2">
-        <f>PI()*((G120/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>70685.83470577035</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>516331.88243805955</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4800</v>
       </c>
       <c r="M120" s="2">
@@ -8890,18 +8905,18 @@
         <v>1700</v>
       </c>
       <c r="Q120" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>659645019.24670959</v>
       </c>
       <c r="R120" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>18095573.68467721</v>
       </c>
       <c r="S120" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.7432290332975895E-2</v>
       </c>
-      <c r="T120" s="15">
+      <c r="T120" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -8919,15 +8934,15 @@
         <v>100</v>
       </c>
       <c r="I121" s="2">
-        <f>PI()*((G121/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>85529.859993982114</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>462573.60732278053</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4000</v>
       </c>
       <c r="M121" s="2">
@@ -8943,18 +8958,18 @@
         <v>1800</v>
       </c>
       <c r="Q121" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>594163194.21145201</v>
       </c>
       <c r="R121" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>12566370.614359172</v>
       </c>
       <c r="S121" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.1149695465463358E-2</v>
       </c>
-      <c r="T121" s="15">
+      <c r="T121" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -8972,15 +8987,15 @@
         <v>100</v>
       </c>
       <c r="I122" s="2">
-        <f>PI()*((G122/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>85529.859993982114</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>462573.60732278053</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>3800</v>
       </c>
       <c r="M122" s="2">
@@ -8996,18 +9011,18 @@
         <v>1800</v>
       </c>
       <c r="Q122" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>594163194.21145201</v>
       </c>
       <c r="R122" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>11341149.479459153</v>
       </c>
       <c r="S122" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.9087600157580684E-2</v>
       </c>
-      <c r="T122" s="15">
+      <c r="T122" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -9025,15 +9040,15 @@
         <v>70</v>
       </c>
       <c r="I123" s="2">
-        <f>PI()*((G123/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>80424.771931898707</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>528762.47161011642</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>3300</v>
       </c>
       <c r="M123" s="2">
@@ -9049,18 +9064,18 @@
         <v>1900</v>
       </c>
       <c r="Q123" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>553818998.20762932</v>
       </c>
       <c r="R123" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8552985.999398211</v>
       </c>
       <c r="S123" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.5443648605553357E-2</v>
       </c>
-      <c r="T123" s="15">
+      <c r="T123" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -9078,15 +9093,15 @@
         <v>70</v>
       </c>
       <c r="I124" s="2">
-        <f>PI()*((G124/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>90792.027688745016</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>540107.24383548496</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1100</v>
       </c>
       <c r="M124" s="2">
@@ -9102,18 +9117,18 @@
         <v>1900</v>
       </c>
       <c r="Q124" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>404528376.99955761</v>
       </c>
       <c r="R124" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>950331.7777109124</v>
       </c>
       <c r="S124" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.3492339023522984E-3</v>
       </c>
-      <c r="T124" s="15">
+      <c r="T124" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -9131,15 +9146,15 @@
         <v>70</v>
       </c>
       <c r="I125" s="2">
-        <f>PI()*((G125/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>90792.027688745016</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>540107.24383548496</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1020</v>
       </c>
       <c r="M125" s="2">
@@ -9155,18 +9170,18 @@
         <v>1900</v>
       </c>
       <c r="Q125" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>404528376.99955761</v>
       </c>
       <c r="R125" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>817128.24919870519</v>
       </c>
       <c r="S125" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.0199528528986209E-3</v>
       </c>
-      <c r="T125" s="15">
+      <c r="T125" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -9181,11 +9196,11 @@
         <v>140</v>
       </c>
       <c r="I126" s="2">
-        <f>PI()*((G126/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>15393.804002589986</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>785398.16339744837</v>
       </c>
       <c r="M126" s="2">
@@ -9198,10 +9213,10 @@
         <v>1000</v>
       </c>
       <c r="Q126" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>366282935.01987404</v>
       </c>
-      <c r="T126" s="15">
+      <c r="T126" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -9216,11 +9231,11 @@
         <v>140</v>
       </c>
       <c r="I127" s="2">
-        <f>PI()*((G127/2)^2)</f>
+        <f t="shared" si="27"/>
         <v>15393.804002589986</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>785398.16339744837</v>
       </c>
       <c r="M127" s="2">
@@ -9233,10 +9248,10 @@
         <v>1000</v>
       </c>
       <c r="Q127" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>366282935.01987404</v>
       </c>
-      <c r="T127" s="15">
+      <c r="T127" s="12">
         <v>43096.773999999998</v>
       </c>
     </row>
@@ -9262,7 +9277,7 @@
         <v>282743.3388230814</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" ref="K128:K141" si="20">M128-(2*N128+2*P128+2*O128)</f>
+        <f t="shared" ref="K128:K138" si="35">M128-(2*N128+2*P128+2*O128)</f>
         <v>2560</v>
       </c>
       <c r="M128" s="2">
@@ -9278,18 +9293,18 @@
         <v>2300</v>
       </c>
       <c r="Q128" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>239027998.32167885</v>
       </c>
       <c r="R128" s="2">
-        <f t="shared" ref="R128:R141" si="21">PI()*((K128/2)^2)</f>
+        <f t="shared" ref="R128:R138" si="36">PI()*((K128/2)^2)</f>
         <v>5147185.4036415173</v>
       </c>
       <c r="S128" s="2">
-        <f t="shared" ref="S128:S141" si="22">R128/Q128</f>
+        <f t="shared" ref="S128:S138" si="37">R128/Q128</f>
         <v>2.1533817961837856E-2</v>
       </c>
-      <c r="T128" s="15">
+      <c r="T128" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9307,15 +9322,15 @@
         <v>80</v>
       </c>
       <c r="I129" s="2">
-        <f>PI()*((G129/2)^2)</f>
+        <f t="shared" ref="I129:I138" si="38">PI()*((G129/2)^2)</f>
         <v>125663.70614359173</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>545415.39124822803</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3400</v>
       </c>
       <c r="M129" s="2">
@@ -9331,18 +9346,18 @@
         <v>1800</v>
       </c>
       <c r="Q129" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>231504609.45530069</v>
       </c>
       <c r="R129" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>9079202.7688745018</v>
       </c>
       <c r="S129" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>3.9218237555773292E-2</v>
       </c>
-      <c r="T129" s="15">
+      <c r="T129" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9374,15 +9389,15 @@
         <v>80</v>
       </c>
       <c r="I130" s="2">
-        <f>PI()*((G130/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>70685.83470577035</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>489514.09076018247</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>1340</v>
       </c>
       <c r="M130" s="2">
@@ -9398,18 +9413,18 @@
         <v>1500</v>
       </c>
       <c r="Q130" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>131884067.21685931</v>
       </c>
       <c r="R130" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>1410260.9421964581</v>
       </c>
       <c r="S130" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>1.0693186614252205E-2</v>
       </c>
-      <c r="T130" s="15">
+      <c r="T130" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9441,15 +9456,15 @@
         <v>80</v>
       </c>
       <c r="I131" s="2">
-        <f>PI()*((G131/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>70685.83470577035</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>489514.09076018247</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>1140</v>
       </c>
       <c r="M131" s="2">
@@ -9465,18 +9480,18 @@
         <v>1500</v>
       </c>
       <c r="Q131" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>131884067.21685931</v>
       </c>
       <c r="R131" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>1020703.4531513238</v>
       </c>
       <c r="S131" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>7.7393992670317258E-3</v>
       </c>
-      <c r="T131" s="15">
+      <c r="T131" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9508,15 +9523,15 @@
         <v>100</v>
       </c>
       <c r="I132" s="2">
-        <f>PI()*((G132/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" ref="J132:J144" si="23">I132*(1000000/((G132+H132)^2))</f>
+        <f t="shared" ref="J132:J138" si="39">I132*(1000000/((G132+H132)^2))</f>
         <v>371223.35066832521</v>
       </c>
       <c r="K132" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>1140</v>
       </c>
       <c r="M132" s="2">
@@ -9532,18 +9547,18 @@
         <v>1300</v>
       </c>
       <c r="Q132" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>113390786.26391017</v>
       </c>
       <c r="R132" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>1020703.4531513238</v>
       </c>
       <c r="S132" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>9.0016436677288619E-3</v>
       </c>
-      <c r="T132" s="15">
+      <c r="T132" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9575,15 +9590,15 @@
         <v>100</v>
       </c>
       <c r="I133" s="2">
-        <f>PI()*((G133/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>38013.2711084365</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>371223.35066832521</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>940</v>
       </c>
       <c r="M133" s="2">
@@ -9599,18 +9614,18 @@
         <v>1300</v>
       </c>
       <c r="Q133" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>113390786.26391017</v>
       </c>
       <c r="R133" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>693977.81717798533</v>
       </c>
       <c r="S133" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>6.1202311055749631E-3</v>
       </c>
-      <c r="T133" s="15">
+      <c r="T133" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9628,15 +9643,15 @@
         <v>40</v>
       </c>
       <c r="I134" s="2">
-        <f>PI()*((G134/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>31415.926535897932</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>545415.39124822803</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>760</v>
       </c>
       <c r="M134" s="2">
@@ -9652,18 +9667,18 @@
         <v>800</v>
       </c>
       <c r="Q134" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>72890860.768477604</v>
       </c>
       <c r="R134" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>453645.97917836613</v>
       </c>
       <c r="S134" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>6.2236331742504267E-3</v>
       </c>
-      <c r="T134" s="15">
+      <c r="T134" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9695,15 +9710,15 @@
         <v>60</v>
       </c>
       <c r="I135" s="2">
-        <f>PI()*((G135/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>166190.25137490005</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>614608.91780658299</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>18600</v>
       </c>
       <c r="M135" s="2">
@@ -9719,18 +9734,18 @@
         <v>5600</v>
       </c>
       <c r="Q135" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1787609091.0867636</v>
       </c>
       <c r="R135" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>271716348.60898119</v>
       </c>
       <c r="S135" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0.15199986952616876</v>
       </c>
-      <c r="T135" s="15">
+      <c r="T135" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9762,15 +9777,15 @@
         <v>60</v>
       </c>
       <c r="I136" s="2">
-        <f>PI()*((G136/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>166190.25137490005</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>614608.91780658299</v>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>18200</v>
       </c>
       <c r="M136" s="2">
@@ -9786,18 +9801,18 @@
         <v>5600</v>
       </c>
       <c r="Q136" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1787609091.0867636</v>
       </c>
       <c r="R136" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>260155287.64377075</v>
       </c>
       <c r="S136" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>0.14553253781318112</v>
       </c>
-      <c r="T136" s="15">
+      <c r="T136" s="12">
         <v>14478.873</v>
       </c>
     </row>
@@ -9806,7 +9821,7 @@
         <v>153</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C137" s="2">
         <v>90</v>
@@ -9829,15 +9844,15 @@
         <v>60</v>
       </c>
       <c r="I137" s="2">
-        <f>PI()*((G137/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>66051.9855417254</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>539199.88197326858</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>5320</v>
       </c>
       <c r="M137" s="2">
@@ -9853,18 +9868,18 @@
         <v>2100</v>
       </c>
       <c r="Q137" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>735832842.46211505</v>
       </c>
       <c r="R137" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>22228652.979739942</v>
       </c>
       <c r="S137" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>3.0208835073686456E-2</v>
       </c>
-      <c r="T137" s="12">
+      <c r="T137" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -9873,7 +9888,7 @@
         <v>154</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G138" s="2">
         <v>280</v>
@@ -9882,15 +9897,15 @@
         <v>50</v>
       </c>
       <c r="I138" s="2">
-        <f>PI()*((G138/2)^2)</f>
+        <f t="shared" si="38"/>
         <v>61575.216010359945</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>565428.98081138602</v>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>4100</v>
       </c>
       <c r="M138" s="2">
@@ -9906,18 +9921,18 @@
         <v>1900</v>
       </c>
       <c r="Q138" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>593821887.20444024</v>
       </c>
       <c r="R138" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>13202543.126711106</v>
       </c>
       <c r="S138" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="37"/>
         <v>2.2233170267376406E-2</v>
       </c>
-      <c r="T138" s="12">
+      <c r="T138" s="9">
         <v>40000</v>
       </c>
     </row>
@@ -9926,60 +9941,57 @@
         <v>155</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" s="2">
         <v>160</v>
       </c>
-      <c r="G139" s="2">
-        <v>210</v>
-      </c>
-      <c r="H139" s="2">
+      <c r="E139" s="2">
+        <f>PI()*((C139/2)^2)</f>
+        <v>20106.192982974677</v>
+      </c>
+      <c r="F139" s="2">
+        <f>E139*(1000000/((C139+D139)^2))</f>
+        <v>785398.16339744837</v>
+      </c>
+      <c r="K139" s="2">
+        <f>M139-(2*N139+2*P139+2*O139)</f>
+        <v>1220</v>
+      </c>
+      <c r="M139" s="2">
+        <v>3800</v>
+      </c>
+      <c r="N139" s="2">
         <v>40</v>
       </c>
-      <c r="I139" s="2">
-        <f>PI()*((G139/2)^2)</f>
-        <v>34636.059005827468</v>
-      </c>
-      <c r="J139" s="2">
-        <f t="shared" si="23"/>
-        <v>554176.94409323949</v>
-      </c>
-      <c r="K139" s="2">
-        <f t="shared" si="20"/>
-        <v>-500</v>
-      </c>
-      <c r="M139" s="2">
-        <v>4300</v>
-      </c>
-      <c r="N139" s="2">
-        <v>100</v>
-      </c>
       <c r="O139" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P139" s="2">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="Q139" s="2">
-        <f t="shared" si="19"/>
-        <v>52222781.625818007</v>
+        <f>(PI()*(M139/2))*((M139/2)+SQRT((T139^2+(M139/2)^2)))</f>
+        <v>44112251.542120144</v>
       </c>
       <c r="R139" s="2">
-        <f t="shared" si="21"/>
-        <v>196349.54084936206</v>
+        <f>PI()*((K139/2)^2)</f>
+        <v>1168986.626400762</v>
       </c>
       <c r="S139" s="2">
-        <f t="shared" si="22"/>
-        <v>3.7598445493813061E-3</v>
-      </c>
-      <c r="T139" s="13">
+        <f>R139/Q139</f>
+        <v>2.6500271138610251E-2</v>
+      </c>
+      <c r="T139" s="10">
         <v>5150.9430000000002</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C140" s="2">
         <v>160</v>
@@ -9993,8 +10005,8 @@
         <v>785398.16339744837</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="20"/>
-        <v>1220</v>
+        <f>M140-(2*N140+2*P140+2*O140)</f>
+        <v>1120</v>
       </c>
       <c r="M140" s="2">
         <v>3800</v>
@@ -10003,24 +10015,24 @@
         <v>40</v>
       </c>
       <c r="O140" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P140" s="2">
         <v>1100</v>
       </c>
       <c r="Q140" s="2">
-        <f t="shared" si="19"/>
+        <f>(PI()*(M140/2))*((M140/2)+SQRT((T140^2+(M140/2)^2)))</f>
         <v>44112251.542120144</v>
       </c>
       <c r="R140" s="2">
-        <f t="shared" si="21"/>
-        <v>1168986.626400762</v>
+        <f>PI()*((K140/2)^2)</f>
+        <v>985203.45616575913</v>
       </c>
       <c r="S140" s="2">
-        <f t="shared" si="22"/>
-        <v>2.6500271138610251E-2</v>
-      </c>
-      <c r="T140" s="13">
+        <f>R140/Q140</f>
+        <v>2.2334009752937853E-2</v>
+      </c>
+      <c r="T140" s="10">
         <v>5150.9430000000002</v>
       </c>
     </row>
@@ -10029,48 +10041,50 @@
         <v>156</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" s="2">
-        <v>160</v>
+        <v>210</v>
+      </c>
+      <c r="D141" s="2">
+        <v>400</v>
       </c>
       <c r="E141" s="2">
         <f>PI()*((C141/2)^2)</f>
-        <v>20106.192982974677</v>
+        <v>34636.059005827468</v>
       </c>
       <c r="F141" s="2">
         <f>E141*(1000000/((C141+D141)^2))</f>
-        <v>785398.16339744837</v>
-      </c>
-      <c r="K141" s="2">
-        <f t="shared" si="20"/>
-        <v>1120</v>
+        <v>93082.663278224863</v>
+      </c>
+      <c r="G141" s="2">
+        <v>190</v>
+      </c>
+      <c r="H141" s="2">
+        <v>60</v>
+      </c>
+      <c r="I141" s="2">
+        <f>PI()*((G141/2)^2)</f>
+        <v>28352.873698647883</v>
+      </c>
+      <c r="J141" s="2">
+        <f>I141*(1000000/((G141+H141)^2))</f>
+        <v>453645.97917836613</v>
       </c>
       <c r="M141" s="2">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="N141" s="2">
         <v>40</v>
       </c>
-      <c r="O141" s="2">
-        <v>200</v>
-      </c>
-      <c r="P141" s="2">
-        <v>1100</v>
+      <c r="O141" s="1">
+        <v>300</v>
       </c>
       <c r="Q141" s="2">
-        <f t="shared" si="19"/>
-        <v>44112251.542120144</v>
-      </c>
-      <c r="R141" s="2">
-        <f t="shared" si="21"/>
-        <v>985203.45616575913</v>
-      </c>
-      <c r="S141" s="2">
-        <f t="shared" si="22"/>
-        <v>2.2334009752937853E-2</v>
-      </c>
-      <c r="T141" s="13">
+        <f>(PI()*(M141/2))*((M141/2)+SQRT((T141^2+(M141/2)^2)))</f>
+        <v>39529652.368811958</v>
+      </c>
+      <c r="T141" s="10">
         <v>5150.9430000000002</v>
       </c>
     </row>
@@ -10079,59 +10093,74 @@
         <v>157</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C142" s="2">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="D142" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E142" s="2">
         <f>PI()*((C142/2)^2)</f>
-        <v>34636.059005827468</v>
+        <v>75476.763502494781</v>
       </c>
       <c r="F142" s="2">
         <f>E142*(1000000/((C142+D142)^2))</f>
-        <v>93082.663278224863</v>
+        <v>202839.99866297981</v>
       </c>
       <c r="G142" s="2">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="H142" s="2">
         <v>60</v>
       </c>
       <c r="I142" s="2">
         <f>PI()*((G142/2)^2)</f>
-        <v>28352.873698647883</v>
+        <v>13273.228961416877</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="23"/>
-        <v>453645.97917836613</v>
+        <f>I142*(1000000/((G142+H142)^2))</f>
+        <v>367679.47261542594</v>
+      </c>
+      <c r="K142" s="2">
+        <f>M142-(2*N142+2*P142+2*O142)</f>
+        <v>1360</v>
       </c>
       <c r="M142" s="2">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="N142" s="2">
-        <v>40</v>
-      </c>
-      <c r="O142" s="1">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="O142" s="2">
+        <v>100</v>
+      </c>
+      <c r="P142" s="2">
+        <v>900</v>
       </c>
       <c r="Q142" s="2">
-        <f t="shared" si="19"/>
-        <v>39529652.368811958</v>
-      </c>
-      <c r="T142" s="13">
+        <f>(PI()*(M142/2))*((M142/2)+SQRT((T142^2+(M142/2)^2)))</f>
+        <v>38048400.461165421</v>
+      </c>
+      <c r="R142" s="2">
+        <f>PI()*((K142/2)^2)</f>
+        <v>1452672.4430199203</v>
+      </c>
+      <c r="S142" s="2">
+        <f>R142/Q142</f>
+        <v>3.8179592976651112E-2</v>
+      </c>
+      <c r="T142" s="10">
         <v>5150.9430000000002</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C143" s="2">
         <v>310</v>
@@ -10158,18 +10187,18 @@
         <v>13273.228961416877</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="23"/>
+        <f>I143*(1000000/((G143+H143)^2))</f>
         <v>367679.47261542594</v>
       </c>
       <c r="K143" s="2">
         <f>M143-(2*N143+2*P143+2*O143)</f>
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="M143" s="2">
         <v>3400</v>
       </c>
       <c r="N143" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O143" s="2">
         <v>100</v>
@@ -10178,139 +10207,78 @@
         <v>900</v>
       </c>
       <c r="Q143" s="2">
-        <f t="shared" si="19"/>
+        <f>(PI()*(M143/2))*((M143/2)+SQRT((T143^2+(M143/2)^2)))</f>
         <v>38048400.461165421</v>
       </c>
       <c r="R143" s="2">
         <f>PI()*((K143/2)^2)</f>
-        <v>1452672.4430199203</v>
+        <v>1410260.9421964581</v>
       </c>
       <c r="S143" s="2">
         <f>R143/Q143</f>
-        <v>3.8179592976651112E-2</v>
-      </c>
-      <c r="T143" s="13">
-        <v>5150.9430000000002</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C144" s="2">
-        <v>310</v>
-      </c>
-      <c r="D144" s="2">
-        <v>300</v>
-      </c>
-      <c r="E144" s="2">
-        <f>PI()*((C144/2)^2)</f>
-        <v>75476.763502494781</v>
-      </c>
-      <c r="F144" s="2">
-        <f>E144*(1000000/((C144+D144)^2))</f>
-        <v>202839.99866297981</v>
-      </c>
-      <c r="G144" s="2">
-        <v>130</v>
-      </c>
-      <c r="H144" s="2">
-        <v>60</v>
-      </c>
-      <c r="I144" s="2">
-        <f>PI()*((G144/2)^2)</f>
-        <v>13273.228961416877</v>
-      </c>
-      <c r="J144" s="2">
-        <f t="shared" si="23"/>
-        <v>367679.47261542594</v>
-      </c>
-      <c r="K144" s="2">
-        <f>M144-(2*N144+2*P144+2*O144)</f>
-        <v>1340</v>
-      </c>
-      <c r="M144" s="2">
-        <v>3400</v>
-      </c>
-      <c r="N144" s="2">
-        <v>30</v>
-      </c>
-      <c r="O144" s="2">
-        <v>100</v>
-      </c>
-      <c r="P144" s="2">
-        <v>900</v>
-      </c>
-      <c r="Q144" s="2">
-        <f t="shared" si="19"/>
-        <v>38048400.461165421</v>
-      </c>
-      <c r="R144" s="2">
-        <f>PI()*((K144/2)^2)</f>
-        <v>1410260.9421964581</v>
-      </c>
-      <c r="S144" s="2">
-        <f>R144/Q144</f>
         <v>3.7064920603846641E-2</v>
       </c>
-      <c r="T144" s="13">
+      <c r="T143" s="10">
         <v>5150.9430000000002</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
-      <c r="T145" s="16"/>
+      <c r="T145" s="13"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
-      <c r="T146" s="16"/>
+      <c r="T146" s="13"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
-      <c r="T147" s="16"/>
+      <c r="T147" s="13"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
-      <c r="T148" s="16"/>
+      <c r="T148" s="13"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
-      <c r="T149" s="16"/>
+      <c r="T149" s="13"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
-      <c r="T150" s="16"/>
+      <c r="T150" s="13"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
-      <c r="T151" s="16"/>
+      <c r="T151" s="13"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
-      <c r="T152" s="16"/>
+      <c r="T152" s="13"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
-      <c r="T153" s="16"/>
+      <c r="T153" s="13"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
-      <c r="T154" s="16"/>
+      <c r="T154" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Archaeos Measurements.xlsx
+++ b/Archaeos Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CEC3C-D92C-B246-8702-4E9B0963C2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67B174A-4873-F444-B2A1-B5C8C7E58386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="53560" windowHeight="32880" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
+    <workbookView xWindow="2300" yWindow="500" windowWidth="53560" windowHeight="32880" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="181">
   <si>
     <t>P48483</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>Kruse, P. D., &amp; Moreno-Eiris, E. (2013). Archaeocyaths of the White Point Conglomerate, Kangaroo Island, South Australia. Alcheringa: An Australasian Journal of Palaeontology, 38(1), 1–64.</t>
+  </si>
+  <si>
+    <t>*All data listed in μm</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -734,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1058,7 @@
   <dimension ref="A1:W154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,7 +2155,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -2215,8 +2221,11 @@
       <c r="T17" s="6">
         <v>50000</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W17" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>84</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>85</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -2618,7 +2627,7 @@
         <v>16153.846</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>16153.846</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>33333</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>93</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>94</v>
       </c>
@@ -3020,7 +3029,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
